--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\pasy script\pasy script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\rostlinolekarske_pasy\rostlinolekarske_pasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDBFE08-29A2-4A0F-AAAF-A1D3F43570C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEAE0FF-444E-42D9-A495-976AC52F06FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6315" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="šarže 2022" sheetId="2" r:id="rId1"/>
@@ -6265,7 +6265,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -6276,7 +6276,7 @@
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>150</v>
       </c>
@@ -6292,7 +6292,7 @@
       <c r="F1" s="21"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:7" ht="12.75">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12.75">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>155</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>158</v>
       </c>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>160</v>
       </c>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="12.75">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>162</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>164</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>166</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>169</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>171</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>173</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12.75">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>175</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12.75">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>177</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.75">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>179</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.75">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>181</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>183</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>185</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>187</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>189</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>191</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>193</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>195</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>197</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.75">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
         <v>199</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.75">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
         <v>201</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.75">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
         <v>203</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.75">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.75">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>206</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.75">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
         <v>208</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>210</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>212</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.75">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>215</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.75">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>217</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.75">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>219</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.75">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="10" t="s">
         <v>222</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.75">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
         <v>224</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="10" t="s">
         <v>226</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.75">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>228</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.75">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="11" t="s">
         <v>230</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.75">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="10" t="s">
         <v>233</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
         <v>235</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.75">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
         <v>237</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.75">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
         <v>239</v>
       </c>
@@ -6803,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.75">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="5" t="s">
         <v>241</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.75">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="5" t="s">
         <v>243</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.75">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="5" t="s">
         <v>245</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
         <v>247</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
         <v>249</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.75">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="5" t="s">
         <v>251</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.75">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="5" t="s">
         <v>253</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>255</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.75">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="5" t="s">
         <v>257</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.75">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="12.75">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="5" t="s">
         <v>260</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="10" t="s">
         <v>262</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="10" t="s">
         <v>264</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.75">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="s">
         <v>4</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
         <v>267</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="10" t="s">
         <v>269</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.75">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>271</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="12.75">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="s">
         <v>7</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12.75">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="s">
         <v>274</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="10" t="s">
         <v>276</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="12.75">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="5" t="s">
         <v>278</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12.75">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="5" t="s">
         <v>280</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12.75">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="A70" s="5" t="s">
         <v>5</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12.75">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
       <c r="A71" s="5" t="s">
         <v>283</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="12.75">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
       <c r="A72" s="5" t="s">
         <v>6</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="12.75">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
       <c r="A73" s="5" t="s">
         <v>286</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" s="10" t="s">
         <v>288</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12.75">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
       <c r="A75" s="5" t="s">
         <v>290</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12.75">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
       <c r="A76" s="9" t="s">
         <v>292</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12.75">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>294</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="12.75">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>296</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="12.75">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>298</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="12.75">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>300</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="12.75">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
       <c r="A81" s="5" t="s">
         <v>302</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="12.75">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1">
       <c r="A82" s="5" t="s">
         <v>304</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
       <c r="A83" s="10" t="s">
         <v>306</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="12.75">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1">
       <c r="A84" s="5" t="s">
         <v>308</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="12.75">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1">
       <c r="A85" s="5" t="s">
         <v>310</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1">
       <c r="A86" s="10" t="s">
         <v>312</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12.75">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1">
       <c r="A87" s="5" t="s">
         <v>314</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12.75">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1">
       <c r="A88" s="5" t="s">
         <v>316</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="12.75">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1">
       <c r="A89" s="5" t="s">
         <v>318</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="12.75">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1">
       <c r="A90" s="5" t="s">
         <v>14</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12.75">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1">
       <c r="A91" s="5" t="s">
         <v>321</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1">
       <c r="A92" s="10" t="s">
         <v>323</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="12.75">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1">
       <c r="A93" s="5" t="s">
         <v>325</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="12.75">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1">
       <c r="A94" s="5" t="s">
         <v>17</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="12.75">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1">
       <c r="A95" s="5" t="s">
         <v>328</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="12.75">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1">
       <c r="A96" s="5" t="s">
         <v>330</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="12.75">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1">
       <c r="A97" s="5" t="s">
         <v>332</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="12.75">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1">
       <c r="A98" s="5" t="s">
         <v>13</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="12.75">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1">
       <c r="A99" s="5" t="s">
         <v>335</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="12.75">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1">
       <c r="A100" s="5" t="s">
         <v>337</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="12.75">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1">
       <c r="A101" s="5" t="s">
         <v>339</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="12.75">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1">
       <c r="A102" s="5" t="s">
         <v>341</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12.75">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1">
       <c r="A103" s="5" t="s">
         <v>11</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="12.75">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1">
       <c r="A104" s="5" t="s">
         <v>344</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="12.75">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1">
       <c r="A105" s="5" t="s">
         <v>346</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="12.75">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1">
       <c r="A106" s="5" t="s">
         <v>348</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="12.75">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1">
       <c r="A107" s="5" t="s">
         <v>350</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="12.75">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1">
       <c r="A108" s="5" t="s">
         <v>352</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="12.75">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1">
       <c r="A109" s="5" t="s">
         <v>354</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="12.75">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1">
       <c r="A110" s="5" t="s">
         <v>356</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="12.75">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1">
       <c r="A111" s="5" t="s">
         <v>358</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="12.75">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1">
       <c r="A112" s="5" t="s">
         <v>360</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="12.75">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1">
       <c r="A113" s="5" t="s">
         <v>12</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="12.75">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1">
       <c r="A114" s="5" t="s">
         <v>15</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="12.75">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1">
       <c r="A115" s="5" t="s">
         <v>364</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="12.75">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1">
       <c r="A116" s="5" t="s">
         <v>16</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="12.75">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1">
       <c r="A117" s="5" t="s">
         <v>367</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="12.75">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1">
       <c r="A118" s="5" t="s">
         <v>369</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="12.75">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1">
       <c r="A119" s="5" t="s">
         <v>371</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="12.75">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1">
       <c r="A120" s="5" t="s">
         <v>373</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="12.75">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1">
       <c r="A121" s="5" t="s">
         <v>375</v>
       </c>
@@ -7617,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="12.75">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1">
       <c r="A122" s="9" t="s">
         <v>377</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="12.75">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1">
       <c r="A123" s="5" t="s">
         <v>18</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="12.75">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1">
       <c r="A124" s="5" t="s">
         <v>380</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="12.75">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1">
       <c r="A125" s="5" t="s">
         <v>382</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="12.75">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1">
       <c r="A126" s="5" t="s">
         <v>384</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="12.75">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1">
       <c r="A127" s="5" t="s">
         <v>386</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="12.75">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1">
       <c r="A128" s="5" t="s">
         <v>388</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="12.75">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1">
       <c r="A129" s="5" t="s">
         <v>19</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="12.75">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1">
       <c r="A130" s="5" t="s">
         <v>391</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="12.75">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1">
       <c r="A131" s="5" t="s">
         <v>393</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="12.75">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1">
       <c r="A132" s="5" t="s">
         <v>395</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="12.75">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1">
       <c r="A133" s="5" t="s">
         <v>397</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="12.75">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1">
       <c r="A134" s="5" t="s">
         <v>399</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="12.75">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1">
       <c r="A135" s="5" t="s">
         <v>401</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="12.75">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1">
       <c r="A136" s="5" t="s">
         <v>403</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="12.75">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1">
       <c r="A137" s="5" t="s">
         <v>405</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="12.75">
+    <row r="138" spans="1:3" ht="15.75" customHeight="1">
       <c r="A138" s="5" t="s">
         <v>407</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="12.75">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1">
       <c r="A139" s="5" t="s">
         <v>407</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="12.75">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1">
       <c r="A140" s="5" t="s">
         <v>410</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="12.75">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1">
       <c r="A141" s="5" t="s">
         <v>412</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="12.75">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1">
       <c r="A142" s="5" t="s">
         <v>414</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="12.75">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1">
       <c r="A143" s="5" t="s">
         <v>416</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="12.75">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1">
       <c r="A144" s="5" t="s">
         <v>418</v>
       </c>
@@ -7870,7 +7870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="12.75">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1">
       <c r="A145" s="5" t="s">
         <v>420</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="12.75">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1">
       <c r="A146" s="5" t="s">
         <v>422</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="12.75">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1">
       <c r="A147" s="5" t="s">
         <v>424</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="12.75">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1">
       <c r="A148" s="5" t="s">
         <v>426</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="12.75">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1">
       <c r="A149" s="5" t="s">
         <v>428</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="12.75">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1">
       <c r="A150" s="5" t="s">
         <v>430</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="12.75">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1">
       <c r="A151" s="5" t="s">
         <v>432</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="12.75">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1">
       <c r="A152" s="5" t="s">
         <v>434</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="12.75">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1">
       <c r="A153" s="5" t="s">
         <v>436</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="12.75">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1">
       <c r="A154" s="5" t="s">
         <v>26</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="12.75">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1">
       <c r="A155" s="5" t="s">
         <v>439</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="12.75">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1">
       <c r="A156" s="5" t="s">
         <v>21</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="12.75">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1">
       <c r="A157" s="5" t="s">
         <v>22</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="12.75">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1">
       <c r="A158" s="5" t="s">
         <v>443</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="12.75">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1">
       <c r="A159" s="5" t="s">
         <v>445</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="12.75">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1">
       <c r="A160" s="5" t="s">
         <v>447</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="12.75">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1">
       <c r="A161" s="5" t="s">
         <v>20</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="12.75">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1">
       <c r="A162" s="5" t="s">
         <v>450</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="12.75">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1">
       <c r="A163" s="5" t="s">
         <v>25</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="12.75">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1">
       <c r="A164" s="5" t="s">
         <v>23</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="12.75">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1">
       <c r="A165" s="5" t="s">
         <v>454</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="12.75">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1">
       <c r="A166" s="5" t="s">
         <v>456</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="12.75">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1">
       <c r="A167" s="5" t="s">
         <v>24</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="12.75">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1">
       <c r="A168" s="5" t="s">
         <v>459</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="12.75">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1">
       <c r="A169" s="5" t="s">
         <v>461</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="12.75">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1">
       <c r="A170" s="5" t="s">
         <v>463</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="12.75">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1">
       <c r="A171" s="5" t="s">
         <v>465</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="12.75">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1">
       <c r="A172" s="5" t="s">
         <v>467</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="12.75">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1">
       <c r="A173" s="5" t="s">
         <v>469</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="12.75">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1">
       <c r="A174" s="5" t="s">
         <v>27</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="12.75">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1">
       <c r="A175" s="5" t="s">
         <v>28</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="12.75">
+    <row r="176" spans="1:3" ht="15.75" customHeight="1">
       <c r="A176" s="5" t="s">
         <v>29</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="12.75">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1">
       <c r="A177" s="5" t="s">
         <v>30</v>
       </c>
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="12.75">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1">
       <c r="A178" s="5" t="s">
         <v>31</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="12.75">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1">
       <c r="A179" s="5" t="s">
         <v>32</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="12.75">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1">
       <c r="A180" s="5" t="s">
         <v>33</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="12.75">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1">
       <c r="A181" s="5" t="s">
         <v>478</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="12.75">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1">
       <c r="A182" s="5" t="s">
         <v>480</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="12.75">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1">
       <c r="A183" s="5" t="s">
         <v>482</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="12.75">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1">
       <c r="A184" s="5" t="s">
         <v>484</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="12.75">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1">
       <c r="A185" s="5" t="s">
         <v>486</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="12.75">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1">
       <c r="A186" s="5" t="s">
         <v>488</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="12.75">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1">
       <c r="A187" s="5" t="s">
         <v>490</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="12.75">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1">
       <c r="A188" s="5" t="s">
         <v>492</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="12.75">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1">
       <c r="A189" s="5" t="s">
         <v>494</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="12.75">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1">
       <c r="A190" s="5" t="s">
         <v>496</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="12.75">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1">
       <c r="A191" s="5" t="s">
         <v>34</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="12.75">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1">
       <c r="A192" s="5" t="s">
         <v>499</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="12.75">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1">
       <c r="A193" s="5" t="s">
         <v>501</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="12.75">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1">
       <c r="A194" s="5" t="s">
         <v>503</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="12.75">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1">
       <c r="A195" s="5" t="s">
         <v>505</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="12.75">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1">
       <c r="A196" s="5" t="s">
         <v>507</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="12.75">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1">
       <c r="A197" s="5" t="s">
         <v>509</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="12.75">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1">
       <c r="A198" s="5" t="s">
         <v>511</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="12.75">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1">
       <c r="A199" s="5" t="s">
         <v>513</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="12.75">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1">
       <c r="A200" s="5" t="s">
         <v>515</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="12.75">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1">
       <c r="A201" s="5" t="s">
         <v>517</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="12.75">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1">
       <c r="A202" s="5" t="s">
         <v>519</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="12.75">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1">
       <c r="A203" s="5" t="s">
         <v>521</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="12.75">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1">
       <c r="A204" s="5" t="s">
         <v>49</v>
       </c>
@@ -8530,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="12.75">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1">
       <c r="A205" s="5" t="s">
         <v>48</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="12.75">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1">
       <c r="A206" s="5" t="s">
         <v>50</v>
       </c>
@@ -8552,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="12.75">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1">
       <c r="A207" s="5" t="s">
         <v>51</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="12.75">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1">
       <c r="A208" s="5" t="s">
         <v>527</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="12.75">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1">
       <c r="A209" s="5" t="s">
         <v>55</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="12.75">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1">
       <c r="A210" s="5" t="s">
         <v>530</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="12.75">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1">
       <c r="A211" s="5" t="s">
         <v>532</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="12.75">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1">
       <c r="A212" s="5" t="s">
         <v>534</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="12.75">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1">
       <c r="A213" s="5" t="s">
         <v>536</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="12.75">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1">
       <c r="A214" s="5" t="s">
         <v>538</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="12.75">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1">
       <c r="A215" s="5" t="s">
         <v>540</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="12.75">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1">
       <c r="A216" s="5" t="s">
         <v>542</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="12.75">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1">
       <c r="A217" s="5" t="s">
         <v>544</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="12.75">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1">
       <c r="A218" s="5" t="s">
         <v>69</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="12.75">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1">
       <c r="A219" s="5" t="s">
         <v>547</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="12.75">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1">
       <c r="A220" s="5" t="s">
         <v>549</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="12.75">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1">
       <c r="A221" s="5" t="s">
         <v>551</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="12.75">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1">
       <c r="A222" s="11" t="s">
         <v>553</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="12.75">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1">
       <c r="A223" s="5" t="s">
         <v>555</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="12.75">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1">
       <c r="A224" s="5" t="s">
         <v>67</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="12.75">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1">
       <c r="A225" s="5" t="s">
         <v>558</v>
       </c>
@@ -8761,7 +8761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="12.75">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1">
       <c r="A226" s="5" t="s">
         <v>60</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="12.75">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1">
       <c r="A227" s="5" t="s">
         <v>561</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="12.75">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1">
       <c r="A228" s="5" t="s">
         <v>563</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="12.75">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1">
       <c r="A229" s="5" t="s">
         <v>565</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="12.75">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1">
       <c r="A230" s="5" t="s">
         <v>567</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="12.75">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1">
       <c r="A231" s="5" t="s">
         <v>569</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="12.75">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1">
       <c r="A232" s="5" t="s">
         <v>571</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="12.75">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1">
       <c r="A233" s="5" t="s">
         <v>573</v>
       </c>
@@ -8849,7 +8849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="12.75">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1">
       <c r="A234" s="5" t="s">
         <v>575</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="12.75">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1">
       <c r="A235" s="5" t="s">
         <v>68</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="12.75">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1">
       <c r="A236" s="5" t="s">
         <v>578</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="12.75">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1">
       <c r="A237" s="5" t="s">
         <v>580</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="12.75">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1">
       <c r="A238" s="5" t="s">
         <v>582</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="12.75">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1">
       <c r="A239" s="5" t="s">
         <v>584</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="12.75">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1">
       <c r="A240" s="5" t="s">
         <v>37</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="12.75">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1">
       <c r="A241" s="5" t="s">
         <v>36</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="12.75">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1">
       <c r="A242" s="5" t="s">
         <v>588</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="12.75">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1">
       <c r="A243" s="5" t="s">
         <v>590</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="12.75">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1">
       <c r="A244" s="5" t="s">
         <v>592</v>
       </c>
@@ -8970,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="12.75">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1">
       <c r="A245" s="5" t="s">
         <v>594</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="12.75">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1">
       <c r="A246" s="5" t="s">
         <v>596</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="12.75">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1">
       <c r="A247" s="5" t="s">
         <v>598</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="12.75">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1">
       <c r="A248" s="5" t="s">
         <v>600</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="12.75">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1">
       <c r="A249" s="5" t="s">
         <v>38</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="12.75">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1">
       <c r="A250" s="5" t="s">
         <v>603</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="12.75">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1">
       <c r="A251" s="5" t="s">
         <v>605</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="12.75">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1">
       <c r="A252" s="5" t="s">
         <v>607</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="12.75">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1">
       <c r="A253" s="5" t="s">
         <v>609</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="12.75">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1">
       <c r="A254" s="5" t="s">
         <v>611</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="12.75">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1">
       <c r="A255" s="5" t="s">
         <v>72</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="12.75">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1">
       <c r="A256" s="5" t="s">
         <v>614</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="12.75">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1">
       <c r="A257" s="5" t="s">
         <v>616</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="12.75">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1">
       <c r="A258" s="5" t="s">
         <v>618</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="12.75">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1">
       <c r="A259" s="5" t="s">
         <v>620</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="12.75">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1">
       <c r="A260" s="5" t="s">
         <v>622</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="12.75">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1">
       <c r="A261" s="5" t="s">
         <v>624</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="12.75">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1">
       <c r="A262" s="5" t="s">
         <v>626</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="12.75">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1">
       <c r="A263" s="5" t="s">
         <v>628</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="12.75">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1">
       <c r="A264" s="5" t="s">
         <v>39</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="12.75">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1">
       <c r="A265" s="5" t="s">
         <v>631</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="12.75">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1">
       <c r="A266" s="5" t="s">
         <v>633</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="12.75">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1">
       <c r="A267" s="5" t="s">
         <v>635</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="12.75">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1">
       <c r="A268" s="5" t="s">
         <v>637</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="12.75">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1">
       <c r="A269" s="5" t="s">
         <v>639</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="12.75">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1">
       <c r="A270" s="5" t="s">
         <v>40</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="12.75">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1">
       <c r="A271" s="5" t="s">
         <v>642</v>
       </c>
@@ -9267,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="12.75">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1">
       <c r="A272" s="5" t="s">
         <v>644</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="12.75">
+    <row r="273" spans="1:3" ht="15.75" customHeight="1">
       <c r="A273" s="5" t="s">
         <v>646</v>
       </c>
@@ -9289,7 +9289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="12.75">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1">
       <c r="A274" s="5" t="s">
         <v>648</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="12.75">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1">
       <c r="A275" s="6" t="s">
         <v>650</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="12.75">
+    <row r="276" spans="1:3" ht="15.75" customHeight="1">
       <c r="A276" s="5" t="s">
         <v>652</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="12.75">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1">
       <c r="A277" s="5" t="s">
         <v>71</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="12.75">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1">
       <c r="A278" s="5" t="s">
         <v>70</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="12.75">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1">
       <c r="A279" s="6" t="s">
         <v>656</v>
       </c>
@@ -9355,7 +9355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="12.75">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1">
       <c r="A280" s="5" t="s">
         <v>658</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="12.75">
+    <row r="281" spans="1:3" ht="15.75" customHeight="1">
       <c r="A281" s="5" t="s">
         <v>660</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="12.75">
+    <row r="282" spans="1:3" ht="15.75" customHeight="1">
       <c r="A282" s="11" t="s">
         <v>662</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="12.75">
+    <row r="283" spans="1:3" ht="15.75" customHeight="1">
       <c r="A283" s="5" t="s">
         <v>664</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="12.75">
+    <row r="284" spans="1:3" ht="15.75" customHeight="1">
       <c r="A284" s="5" t="s">
         <v>666</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="12.75">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1">
       <c r="A285" s="5" t="s">
         <v>47</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="12.75">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1">
       <c r="A286" s="5" t="s">
         <v>669</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="12.75">
+    <row r="287" spans="1:3" ht="15.75" customHeight="1">
       <c r="A287" s="5" t="s">
         <v>671</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="12.75">
+    <row r="288" spans="1:3" ht="15.75" customHeight="1">
       <c r="A288" s="5" t="s">
         <v>673</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="12.75">
+    <row r="289" spans="1:4" ht="15.75" customHeight="1">
       <c r="A289" s="5" t="s">
         <v>675</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="12.75">
+    <row r="290" spans="1:4" ht="15.75" customHeight="1">
       <c r="A290" s="5" t="s">
         <v>175</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="12.75">
+    <row r="291" spans="1:4" ht="15.75" customHeight="1">
       <c r="A291" s="5" t="s">
         <v>678</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="12.75">
+    <row r="292" spans="1:4" ht="15.75" customHeight="1">
       <c r="A292" s="12" t="s">
         <v>199</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="12.75">
+    <row r="293" spans="1:4" ht="15.75" customHeight="1">
       <c r="A293" s="5" t="s">
         <v>681</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="12.75">
+    <row r="294" spans="1:4" ht="15.75" customHeight="1">
       <c r="A294" s="5" t="s">
         <v>66</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="12.75">
+    <row r="295" spans="1:4" ht="15.75" customHeight="1">
       <c r="A295" s="5" t="s">
         <v>684</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="12.75">
+    <row r="296" spans="1:4" ht="15.75" customHeight="1">
       <c r="A296" s="5" t="s">
         <v>686</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="12.75">
+    <row r="297" spans="1:4" ht="15.75" customHeight="1">
       <c r="A297" s="5" t="s">
         <v>688</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="12.75">
+    <row r="298" spans="1:4" ht="15.75" customHeight="1">
       <c r="A298" s="5" t="s">
         <v>690</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="12.75">
+    <row r="299" spans="1:4" ht="15.75" customHeight="1">
       <c r="A299" s="5" t="s">
         <v>692</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="12.75">
+    <row r="300" spans="1:4" ht="15.75" customHeight="1">
       <c r="A300" s="5" t="s">
         <v>63</v>
       </c>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:4" ht="12.75">
+    <row r="301" spans="1:4" ht="15.75" customHeight="1">
       <c r="A301" s="5" t="s">
         <v>695</v>
       </c>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:4" ht="12.75">
+    <row r="302" spans="1:4" ht="15.75" customHeight="1">
       <c r="A302" s="5" t="s">
         <v>697</v>
       </c>
@@ -9611,7 +9611,7 @@
       </c>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:4" ht="12.75">
+    <row r="303" spans="1:4" ht="15.75" customHeight="1">
       <c r="A303" s="5" t="s">
         <v>699</v>
       </c>
@@ -9623,7 +9623,7 @@
       </c>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" ht="12.75">
+    <row r="304" spans="1:4" ht="15.75" customHeight="1">
       <c r="A304" s="5" t="s">
         <v>701</v>
       </c>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:4" ht="12.75">
+    <row r="305" spans="1:4" ht="15.75" customHeight="1">
       <c r="A305" s="5" t="s">
         <v>62</v>
       </c>
@@ -9647,7 +9647,7 @@
       </c>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4" ht="12.75">
+    <row r="306" spans="1:4" ht="15.75" customHeight="1">
       <c r="A306" s="5" t="s">
         <v>704</v>
       </c>
@@ -9659,7 +9659,7 @@
       </c>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4" ht="12.75">
+    <row r="307" spans="1:4" ht="15.75" customHeight="1">
       <c r="A307" s="5" t="s">
         <v>706</v>
       </c>
@@ -9671,7 +9671,7 @@
       </c>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4" ht="12.75">
+    <row r="308" spans="1:4" ht="15.75" customHeight="1">
       <c r="A308" s="5" t="s">
         <v>708</v>
       </c>
@@ -9683,7 +9683,7 @@
       </c>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4" ht="12.75">
+    <row r="309" spans="1:4" ht="15.75" customHeight="1">
       <c r="A309" s="5" t="s">
         <v>710</v>
       </c>
@@ -9695,7 +9695,7 @@
       </c>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4" ht="12.75">
+    <row r="310" spans="1:4" ht="15.75" customHeight="1">
       <c r="A310" s="5" t="s">
         <v>712</v>
       </c>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4" ht="12.75">
+    <row r="311" spans="1:4" ht="15.75" customHeight="1">
       <c r="A311" s="5" t="s">
         <v>714</v>
       </c>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4" ht="12.75">
+    <row r="312" spans="1:4" ht="15.75" customHeight="1">
       <c r="A312" s="5" t="s">
         <v>58</v>
       </c>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" ht="12.75">
+    <row r="313" spans="1:4" ht="15.75" customHeight="1">
       <c r="A313" s="5" t="s">
         <v>65</v>
       </c>
@@ -9743,7 +9743,7 @@
       </c>
       <c r="D313" s="1"/>
     </row>
-    <row r="314" spans="1:4" ht="12.75">
+    <row r="314" spans="1:4" ht="15.75" customHeight="1">
       <c r="A314" s="5" t="s">
         <v>718</v>
       </c>
@@ -9755,7 +9755,7 @@
       </c>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="1:4" ht="12.75">
+    <row r="315" spans="1:4" ht="15.75" customHeight="1">
       <c r="A315" s="5" t="s">
         <v>720</v>
       </c>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="1:4" ht="12.75">
+    <row r="316" spans="1:4" ht="15.75" customHeight="1">
       <c r="A316" s="5" t="s">
         <v>722</v>
       </c>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="D316" s="1"/>
     </row>
-    <row r="317" spans="1:4" ht="12.75">
+    <row r="317" spans="1:4" ht="15.75" customHeight="1">
       <c r="A317" s="5" t="s">
         <v>64</v>
       </c>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="1:4" ht="12.75">
+    <row r="318" spans="1:4" ht="15.75" customHeight="1">
       <c r="A318" s="5" t="s">
         <v>725</v>
       </c>
@@ -9803,7 +9803,7 @@
       </c>
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="1:4" ht="12.75">
+    <row r="319" spans="1:4" ht="15.75" customHeight="1">
       <c r="A319" s="5" t="s">
         <v>727</v>
       </c>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="1:4" ht="12.75">
+    <row r="320" spans="1:4" ht="15.75" customHeight="1">
       <c r="A320" s="5" t="s">
         <v>56</v>
       </c>
@@ -9827,7 +9827,7 @@
       </c>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="1:4" ht="12.75">
+    <row r="321" spans="1:4" ht="15.75" customHeight="1">
       <c r="A321" s="5" t="s">
         <v>730</v>
       </c>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="1:4" ht="12.75">
+    <row r="322" spans="1:4" ht="15.75" customHeight="1">
       <c r="A322" s="5" t="s">
         <v>732</v>
       </c>
@@ -9851,7 +9851,7 @@
       </c>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="1:4" ht="12.75">
+    <row r="323" spans="1:4" ht="15.75" customHeight="1">
       <c r="A323" s="5" t="s">
         <v>734</v>
       </c>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="1:4" ht="12.75">
+    <row r="324" spans="1:4" ht="15.75" customHeight="1">
       <c r="A324" s="5" t="s">
         <v>736</v>
       </c>
@@ -9875,7 +9875,7 @@
       </c>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4" ht="12.75">
+    <row r="325" spans="1:4" ht="15.75" customHeight="1">
       <c r="A325" s="5" t="s">
         <v>738</v>
       </c>
@@ -9887,7 +9887,7 @@
       </c>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4" ht="12.75">
+    <row r="326" spans="1:4" ht="15.75" customHeight="1">
       <c r="A326" s="5" t="s">
         <v>57</v>
       </c>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4" ht="12.75">
+    <row r="327" spans="1:4" ht="15.75" customHeight="1">
       <c r="A327" s="5" t="s">
         <v>741</v>
       </c>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" ht="12.75">
+    <row r="328" spans="1:4" ht="15.75" customHeight="1">
       <c r="A328" s="5" t="s">
         <v>743</v>
       </c>
@@ -9923,7 +9923,7 @@
       </c>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4" ht="12.75">
+    <row r="329" spans="1:4" ht="15.75" customHeight="1">
       <c r="A329" s="5" t="s">
         <v>59</v>
       </c>
@@ -9935,7 +9935,7 @@
       </c>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4" ht="12.75">
+    <row r="330" spans="1:4" ht="15.75" customHeight="1">
       <c r="A330" s="5" t="s">
         <v>746</v>
       </c>
@@ -9947,7 +9947,7 @@
       </c>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4" ht="12.75">
+    <row r="331" spans="1:4" ht="15.75" customHeight="1">
       <c r="A331" s="5" t="s">
         <v>116</v>
       </c>
@@ -9959,7 +9959,7 @@
       </c>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" ht="12.75">
+    <row r="332" spans="1:4" ht="15.75" customHeight="1">
       <c r="A332" s="5" t="s">
         <v>749</v>
       </c>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4" ht="12.75">
+    <row r="333" spans="1:4" ht="15.75" customHeight="1">
       <c r="A333" s="5" t="s">
         <v>751</v>
       </c>
@@ -9983,7 +9983,7 @@
       </c>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4" ht="12.75">
+    <row r="334" spans="1:4" ht="15.75" customHeight="1">
       <c r="A334" s="5" t="s">
         <v>753</v>
       </c>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="D334" s="1"/>
     </row>
-    <row r="335" spans="1:4" ht="12.75">
+    <row r="335" spans="1:4" ht="15.75" customHeight="1">
       <c r="A335" s="5" t="s">
         <v>755</v>
       </c>
@@ -10007,7 +10007,7 @@
       </c>
       <c r="D335" s="1"/>
     </row>
-    <row r="336" spans="1:4" ht="12.75">
+    <row r="336" spans="1:4" ht="15.75" customHeight="1">
       <c r="A336" s="5" t="s">
         <v>757</v>
       </c>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" ht="12.75">
+    <row r="337" spans="1:4" ht="15.75" customHeight="1">
       <c r="A337" s="5" t="s">
         <v>759</v>
       </c>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="1:4" ht="12.75">
+    <row r="338" spans="1:4" ht="15.75" customHeight="1">
       <c r="A338" s="5" t="s">
         <v>35</v>
       </c>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4" ht="12.75">
+    <row r="339" spans="1:4" ht="15.75" customHeight="1">
       <c r="A339" s="5" t="s">
         <v>762</v>
       </c>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" ht="12.75">
+    <row r="340" spans="1:4" ht="15.75" customHeight="1">
       <c r="A340" s="5" t="s">
         <v>52</v>
       </c>
@@ -10067,7 +10067,7 @@
       </c>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4" ht="12.75">
+    <row r="341" spans="1:4" ht="15.75" customHeight="1">
       <c r="A341" s="5" t="s">
         <v>765</v>
       </c>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="1:4" ht="12.75">
+    <row r="342" spans="1:4" ht="15.75" customHeight="1">
       <c r="A342" s="5" t="s">
         <v>767</v>
       </c>
@@ -10091,7 +10091,7 @@
       </c>
       <c r="D342" s="1"/>
     </row>
-    <row r="343" spans="1:4" ht="12.75">
+    <row r="343" spans="1:4" ht="15.75" customHeight="1">
       <c r="A343" s="5" t="s">
         <v>769</v>
       </c>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="D343" s="1"/>
     </row>
-    <row r="344" spans="1:4" ht="12.75">
+    <row r="344" spans="1:4" ht="15.75" customHeight="1">
       <c r="A344" s="5" t="s">
         <v>771</v>
       </c>
@@ -10115,7 +10115,7 @@
       </c>
       <c r="D344" s="1"/>
     </row>
-    <row r="345" spans="1:4" ht="12.75">
+    <row r="345" spans="1:4" ht="15.75" customHeight="1">
       <c r="A345" s="5" t="s">
         <v>773</v>
       </c>
@@ -10127,7 +10127,7 @@
       </c>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="1:4" ht="12.75">
+    <row r="346" spans="1:4" ht="15.75" customHeight="1">
       <c r="A346" s="5" t="s">
         <v>775</v>
       </c>
@@ -10139,7 +10139,7 @@
       </c>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="1:4" ht="12.75">
+    <row r="347" spans="1:4" ht="15.75" customHeight="1">
       <c r="A347" s="5" t="s">
         <v>777</v>
       </c>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="D347" s="1"/>
     </row>
-    <row r="348" spans="1:4" ht="12.75">
+    <row r="348" spans="1:4" ht="15.75" customHeight="1">
       <c r="A348" s="5" t="s">
         <v>779</v>
       </c>
@@ -10163,7 +10163,7 @@
       </c>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="1:4" ht="12.75">
+    <row r="349" spans="1:4" ht="15.75" customHeight="1">
       <c r="A349" s="5" t="s">
         <v>54</v>
       </c>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="D349" s="1"/>
     </row>
-    <row r="350" spans="1:4" ht="12.75">
+    <row r="350" spans="1:4" ht="15.75" customHeight="1">
       <c r="A350" s="5" t="s">
         <v>43</v>
       </c>
@@ -10187,7 +10187,7 @@
       </c>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4" ht="12.75">
+    <row r="351" spans="1:4" ht="15.75" customHeight="1">
       <c r="A351" s="5" t="s">
         <v>783</v>
       </c>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="1:4" ht="12.75">
+    <row r="352" spans="1:4" ht="15.75" customHeight="1">
       <c r="A352" s="5" t="s">
         <v>785</v>
       </c>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4" ht="12.75">
+    <row r="353" spans="1:4" ht="15.75" customHeight="1">
       <c r="A353" s="5" t="s">
         <v>787</v>
       </c>
@@ -10223,7 +10223,7 @@
       </c>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="1:4" ht="12.75">
+    <row r="354" spans="1:4" ht="15.75" customHeight="1">
       <c r="A354" s="5" t="s">
         <v>42</v>
       </c>
@@ -10235,7 +10235,7 @@
       </c>
       <c r="D354" s="1"/>
     </row>
-    <row r="355" spans="1:4" ht="12.75">
+    <row r="355" spans="1:4" ht="15.75" customHeight="1">
       <c r="A355" s="5" t="s">
         <v>41</v>
       </c>
@@ -10247,7 +10247,7 @@
       </c>
       <c r="D355" s="1"/>
     </row>
-    <row r="356" spans="1:4" ht="12.75">
+    <row r="356" spans="1:4" ht="15.75" customHeight="1">
       <c r="A356" s="5" t="s">
         <v>791</v>
       </c>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="D356" s="1"/>
     </row>
-    <row r="357" spans="1:4" ht="12.75">
+    <row r="357" spans="1:4" ht="15.75" customHeight="1">
       <c r="A357" s="5" t="s">
         <v>793</v>
       </c>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="D357" s="1"/>
     </row>
-    <row r="358" spans="1:4" ht="12.75">
+    <row r="358" spans="1:4" ht="15.75" customHeight="1">
       <c r="A358" s="5" t="s">
         <v>795</v>
       </c>
@@ -10283,7 +10283,7 @@
       </c>
       <c r="D358" s="1"/>
     </row>
-    <row r="359" spans="1:4" ht="12.75">
+    <row r="359" spans="1:4" ht="15.75" customHeight="1">
       <c r="A359" s="5" t="s">
         <v>45</v>
       </c>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="1:4" ht="12.75">
+    <row r="360" spans="1:4" ht="15.75" customHeight="1">
       <c r="A360" s="5" t="s">
         <v>798</v>
       </c>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="1:4" ht="12.75">
+    <row r="361" spans="1:4" ht="15.75" customHeight="1">
       <c r="A361" s="5" t="s">
         <v>44</v>
       </c>
@@ -10319,7 +10319,7 @@
       </c>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="1:4" ht="12.75">
+    <row r="362" spans="1:4" ht="15.75" customHeight="1">
       <c r="A362" s="5" t="s">
         <v>46</v>
       </c>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="1:4" ht="12.75">
+    <row r="363" spans="1:4" ht="15.75" customHeight="1">
       <c r="A363" s="5" t="s">
         <v>802</v>
       </c>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="1:4" ht="12.75">
+    <row r="364" spans="1:4" ht="15.75" customHeight="1">
       <c r="A364" s="5" t="s">
         <v>804</v>
       </c>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="D364" s="1"/>
     </row>
-    <row r="365" spans="1:4" ht="12.75">
+    <row r="365" spans="1:4" ht="15.75" customHeight="1">
       <c r="A365" s="5" t="s">
         <v>806</v>
       </c>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="1:4" ht="12.75">
+    <row r="366" spans="1:4" ht="15.75" customHeight="1">
       <c r="A366" s="5" t="s">
         <v>808</v>
       </c>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="1:4" ht="12.75">
+    <row r="367" spans="1:4" ht="15.75" customHeight="1">
       <c r="A367" s="5" t="s">
         <v>810</v>
       </c>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="D367" s="1"/>
     </row>
-    <row r="368" spans="1:4" ht="12.75">
+    <row r="368" spans="1:4" ht="15.75" customHeight="1">
       <c r="A368" s="5" t="s">
         <v>53</v>
       </c>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="D368" s="1"/>
     </row>
-    <row r="369" spans="1:4" ht="12.75">
+    <row r="369" spans="1:4" ht="15.75" customHeight="1">
       <c r="A369" s="5" t="s">
         <v>813</v>
       </c>
@@ -10415,7 +10415,7 @@
       </c>
       <c r="D369" s="1"/>
     </row>
-    <row r="370" spans="1:4" ht="12.75">
+    <row r="370" spans="1:4" ht="15.75" customHeight="1">
       <c r="A370" s="5" t="s">
         <v>815</v>
       </c>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="1:4" ht="12.75">
+    <row r="371" spans="1:4" ht="15.75" customHeight="1">
       <c r="A371" s="5" t="s">
         <v>61</v>
       </c>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="1:4" ht="12.75">
+    <row r="372" spans="1:4" ht="15.75" customHeight="1">
       <c r="A372" s="5" t="s">
         <v>818</v>
       </c>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="1:4" ht="12.75">
+    <row r="373" spans="1:4" ht="15.75" customHeight="1">
       <c r="A373" s="5" t="s">
         <v>820</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="12.75">
+    <row r="374" spans="1:4" ht="15.75" customHeight="1">
       <c r="A374" s="5" t="s">
         <v>822</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="12.75">
+    <row r="375" spans="1:4" ht="15.75" customHeight="1">
       <c r="A375" s="5" t="s">
         <v>824</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="12.75">
+    <row r="376" spans="1:4" ht="15.75" customHeight="1">
       <c r="A376" s="5" t="s">
         <v>826</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="12.75">
+    <row r="377" spans="1:4" ht="15.75" customHeight="1">
       <c r="A377" s="5" t="s">
         <v>828</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="12.75">
+    <row r="378" spans="1:4" ht="15.75" customHeight="1">
       <c r="A378" s="5" t="s">
         <v>830</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="12.75">
+    <row r="379" spans="1:4" ht="15.75" customHeight="1">
       <c r="A379" s="5" t="s">
         <v>832</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="12.75">
+    <row r="380" spans="1:4" ht="15.75" customHeight="1">
       <c r="A380" s="5" t="s">
         <v>834</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="12.75">
+    <row r="381" spans="1:4" ht="15.75" customHeight="1">
       <c r="A381" s="5" t="s">
         <v>836</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="12.75">
+    <row r="382" spans="1:4" ht="15.75" customHeight="1">
       <c r="A382" s="5" t="s">
         <v>838</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="12.75">
+    <row r="383" spans="1:4" ht="15.75" customHeight="1">
       <c r="A383" s="5" t="s">
         <v>840</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="12.75">
+    <row r="384" spans="1:4" ht="15.75" customHeight="1">
       <c r="A384" s="5" t="s">
         <v>842</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="12.75">
+    <row r="385" spans="1:3" ht="15.75" customHeight="1">
       <c r="A385" s="5" t="s">
         <v>844</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="12.75">
+    <row r="386" spans="1:3" ht="15.75" customHeight="1">
       <c r="A386" s="5" t="s">
         <v>846</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="12.75">
+    <row r="387" spans="1:3" ht="15.75" customHeight="1">
       <c r="A387" s="5" t="s">
         <v>848</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="12.75">
+    <row r="388" spans="1:3" ht="15.75" customHeight="1">
       <c r="A388" s="5" t="s">
         <v>78</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="12.75">
+    <row r="389" spans="1:3" ht="15.75" customHeight="1">
       <c r="A389" s="5" t="s">
         <v>851</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="12.75">
+    <row r="390" spans="1:3" ht="15.75" customHeight="1">
       <c r="A390" s="5" t="s">
         <v>853</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="12.75">
+    <row r="391" spans="1:3" ht="15.75" customHeight="1">
       <c r="A391" s="5" t="s">
         <v>855</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="12.75">
+    <row r="392" spans="1:3" ht="15.75" customHeight="1">
       <c r="A392" s="5" t="s">
         <v>857</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="12.75">
+    <row r="393" spans="1:3" ht="15.75" customHeight="1">
       <c r="A393" s="5" t="s">
         <v>859</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="12.75">
+    <row r="394" spans="1:3" ht="15.75" customHeight="1">
       <c r="A394" s="5" t="s">
         <v>861</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="12.75">
+    <row r="395" spans="1:3" ht="15.75" customHeight="1">
       <c r="A395" s="5" t="s">
         <v>863</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="12.75">
+    <row r="396" spans="1:3" ht="15.75" customHeight="1">
       <c r="A396" s="5" t="s">
         <v>865</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="12.75">
+    <row r="397" spans="1:3" ht="15.75" customHeight="1">
       <c r="A397" s="5" t="s">
         <v>867</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="12.75">
+    <row r="398" spans="1:3" ht="15.75" customHeight="1">
       <c r="A398" s="5" t="s">
         <v>869</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="12.75">
+    <row r="399" spans="1:3" ht="15.75" customHeight="1">
       <c r="A399" s="5" t="s">
         <v>871</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="12.75">
+    <row r="400" spans="1:3" ht="15.75" customHeight="1">
       <c r="A400" s="5" t="s">
         <v>873</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="12.75">
+    <row r="401" spans="1:3" ht="15.75" customHeight="1">
       <c r="A401" s="5" t="s">
         <v>875</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="12.75">
+    <row r="402" spans="1:3" ht="15.75" customHeight="1">
       <c r="A402" s="5" t="s">
         <v>877</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="12.75">
+    <row r="403" spans="1:3" ht="15.75" customHeight="1">
       <c r="A403" s="5" t="s">
         <v>879</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="12.75">
+    <row r="404" spans="1:3" ht="15.75" customHeight="1">
       <c r="A404" s="5" t="s">
         <v>881</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="12.75">
+    <row r="405" spans="1:3" ht="15.75" customHeight="1">
       <c r="A405" s="5" t="s">
         <v>883</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="12.75">
+    <row r="406" spans="1:3" ht="15.75" customHeight="1">
       <c r="A406" s="5" t="s">
         <v>885</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="12.75">
+    <row r="407" spans="1:3" ht="15.75" customHeight="1">
       <c r="A407" s="5" t="s">
         <v>887</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="12.75">
+    <row r="408" spans="1:3" ht="15.75" customHeight="1">
       <c r="A408" s="5" t="s">
         <v>889</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="12.75">
+    <row r="409" spans="1:3" ht="15.75" customHeight="1">
       <c r="A409" s="5" t="s">
         <v>891</v>
       </c>
@@ -10858,7 +10858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="12.75">
+    <row r="410" spans="1:3" ht="15.75" customHeight="1">
       <c r="A410" s="5" t="s">
         <v>893</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="12.75">
+    <row r="411" spans="1:3" ht="15.75" customHeight="1">
       <c r="A411" s="5" t="s">
         <v>895</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="12.75">
+    <row r="412" spans="1:3" ht="15.75" customHeight="1">
       <c r="A412" s="5" t="s">
         <v>897</v>
       </c>
@@ -10891,7 +10891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="12.75">
+    <row r="413" spans="1:3" ht="15.75" customHeight="1">
       <c r="A413" s="5" t="s">
         <v>77</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="12.75">
+    <row r="414" spans="1:3" ht="15.75" customHeight="1">
       <c r="A414" s="5" t="s">
         <v>80</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="12.75">
+    <row r="415" spans="1:3" ht="15.75" customHeight="1">
       <c r="A415" s="5" t="s">
         <v>901</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="12.75">
+    <row r="416" spans="1:3" ht="15.75" customHeight="1">
       <c r="A416" s="5" t="s">
         <v>903</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="12.75">
+    <row r="417" spans="1:3" ht="15.75" customHeight="1">
       <c r="A417" s="5" t="s">
         <v>905</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="12.75">
+    <row r="418" spans="1:3" ht="15.75" customHeight="1">
       <c r="A418" s="5" t="s">
         <v>907</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="12.75">
+    <row r="419" spans="1:3" ht="15.75" customHeight="1">
       <c r="A419" s="5" t="s">
         <v>909</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="12.75">
+    <row r="420" spans="1:3" ht="15.75" customHeight="1">
       <c r="A420" s="5" t="s">
         <v>911</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="12.75">
+    <row r="421" spans="1:3" ht="15.75" customHeight="1">
       <c r="A421" s="5" t="s">
         <v>75</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="12.75">
+    <row r="422" spans="1:3" ht="15.75" customHeight="1">
       <c r="A422" s="5" t="s">
         <v>914</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="12.75">
+    <row r="423" spans="1:3" ht="15.75" customHeight="1">
       <c r="A423" s="5" t="s">
         <v>916</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="12.75">
+    <row r="424" spans="1:3" ht="15.75" customHeight="1">
       <c r="A424" s="5" t="s">
         <v>74</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="12.75">
+    <row r="425" spans="1:3" ht="15.75" customHeight="1">
       <c r="A425" s="5" t="s">
         <v>919</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="12.75">
+    <row r="426" spans="1:3" ht="15.75" customHeight="1">
       <c r="A426" s="5" t="s">
         <v>921</v>
       </c>
@@ -11045,7 +11045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="12.75">
+    <row r="427" spans="1:3" ht="15.75" customHeight="1">
       <c r="A427" s="5" t="s">
         <v>923</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="12.75">
+    <row r="428" spans="1:3" ht="15.75" customHeight="1">
       <c r="A428" s="5" t="s">
         <v>925</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="12.75">
+    <row r="429" spans="1:3" ht="15.75" customHeight="1">
       <c r="A429" s="5" t="s">
         <v>927</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="12.75">
+    <row r="430" spans="1:3" ht="15.75" customHeight="1">
       <c r="A430" s="5" t="s">
         <v>929</v>
       </c>
@@ -11089,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="12.75">
+    <row r="431" spans="1:3" ht="15.75" customHeight="1">
       <c r="A431" s="5" t="s">
         <v>931</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="12.75">
+    <row r="432" spans="1:3" ht="15.75" customHeight="1">
       <c r="A432" s="5" t="s">
         <v>933</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="12.75">
+    <row r="433" spans="1:3" ht="15.75" customHeight="1">
       <c r="A433" s="5" t="s">
         <v>79</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="12.75">
+    <row r="434" spans="1:3" ht="15.75" customHeight="1">
       <c r="A434" s="5" t="s">
         <v>936</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="12.75">
+    <row r="435" spans="1:3" ht="15.75" customHeight="1">
       <c r="A435" s="5" t="s">
         <v>938</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="12.75">
+    <row r="436" spans="1:3" ht="15.75" customHeight="1">
       <c r="A436" s="5" t="s">
         <v>940</v>
       </c>
@@ -11155,7 +11155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="12.75">
+    <row r="437" spans="1:3" ht="15.75" customHeight="1">
       <c r="A437" s="5" t="s">
         <v>942</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="12.75">
+    <row r="438" spans="1:3" ht="15.75" customHeight="1">
       <c r="A438" s="5" t="s">
         <v>944</v>
       </c>
@@ -11177,7 +11177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="12.75">
+    <row r="439" spans="1:3" ht="15.75" customHeight="1">
       <c r="A439" s="5" t="s">
         <v>946</v>
       </c>
@@ -11188,7 +11188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="12.75">
+    <row r="440" spans="1:3" ht="15.75" customHeight="1">
       <c r="A440" s="5" t="s">
         <v>948</v>
       </c>
@@ -11199,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="12.75">
+    <row r="441" spans="1:3" ht="15.75" customHeight="1">
       <c r="A441" s="5" t="s">
         <v>76</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="12.75">
+    <row r="442" spans="1:3" ht="15.75" customHeight="1">
       <c r="A442" s="5" t="s">
         <v>951</v>
       </c>
@@ -11221,7 +11221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="12.75">
+    <row r="443" spans="1:3" ht="15.75" customHeight="1">
       <c r="A443" s="5" t="s">
         <v>953</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="12.75">
+    <row r="444" spans="1:3" ht="15.75" customHeight="1">
       <c r="A444" s="5" t="s">
         <v>955</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="12.75">
+    <row r="445" spans="1:3" ht="15.75" customHeight="1">
       <c r="A445" s="5" t="s">
         <v>957</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="12.75">
+    <row r="446" spans="1:3" ht="15.75" customHeight="1">
       <c r="A446" s="5" t="s">
         <v>959</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="12.75">
+    <row r="447" spans="1:3" ht="15.75" customHeight="1">
       <c r="A447" s="5" t="s">
         <v>961</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="12.75">
+    <row r="448" spans="1:3" ht="15.75" customHeight="1">
       <c r="A448" s="5" t="s">
         <v>963</v>
       </c>
@@ -11287,7 +11287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:23" ht="12.75">
+    <row r="449" spans="1:23" ht="15.75" customHeight="1">
       <c r="A449" s="5" t="s">
         <v>965</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:23" ht="12.75">
+    <row r="450" spans="1:23" ht="15.75" customHeight="1">
       <c r="A450" s="5" t="s">
         <v>967</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:23" ht="12.75">
+    <row r="451" spans="1:23" ht="15.75" customHeight="1">
       <c r="A451" s="5" t="s">
         <v>969</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:23" ht="12.75">
+    <row r="452" spans="1:23" ht="15.75" customHeight="1">
       <c r="A452" s="5" t="s">
         <v>971</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:23" ht="12.75">
+    <row r="453" spans="1:23" ht="15.75" customHeight="1">
       <c r="A453" s="5" t="s">
         <v>973</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:23" ht="12.75">
+    <row r="454" spans="1:23" ht="15.75" customHeight="1">
       <c r="A454" s="5" t="s">
         <v>975</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:23" ht="12.75">
+    <row r="455" spans="1:23" ht="15.75" customHeight="1">
       <c r="A455" s="5" t="s">
         <v>977</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:23" ht="12.75">
+    <row r="456" spans="1:23" ht="15.75" customHeight="1">
       <c r="A456" s="5" t="s">
         <v>979</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:23" ht="12.75">
+    <row r="457" spans="1:23" ht="15.75" customHeight="1">
       <c r="A457" s="5" t="s">
         <v>981</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:23" ht="12.75">
+    <row r="458" spans="1:23" ht="15.75" customHeight="1">
       <c r="A458" s="5" t="s">
         <v>983</v>
       </c>
@@ -11397,7 +11397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:23" ht="12.75">
+    <row r="459" spans="1:23" ht="15.75" customHeight="1">
       <c r="A459" s="5" t="s">
         <v>985</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:23" ht="12.75">
+    <row r="460" spans="1:23" ht="15.75" customHeight="1">
       <c r="A460" s="5" t="s">
         <v>987</v>
       </c>
@@ -11439,7 +11439,7 @@
       <c r="V460" s="5"/>
       <c r="W460" s="5"/>
     </row>
-    <row r="461" spans="1:23" ht="12.75">
+    <row r="461" spans="1:23" ht="15.75" customHeight="1">
       <c r="A461" s="5" t="s">
         <v>989</v>
       </c>
@@ -11470,7 +11470,7 @@
       <c r="V461" s="1"/>
       <c r="W461" s="1"/>
     </row>
-    <row r="462" spans="1:23" ht="12.75">
+    <row r="462" spans="1:23" ht="15.75" customHeight="1">
       <c r="A462" s="5" t="s">
         <v>991</v>
       </c>
@@ -11501,7 +11501,7 @@
       <c r="V462" s="1"/>
       <c r="W462" s="1"/>
     </row>
-    <row r="463" spans="1:23" ht="12.75">
+    <row r="463" spans="1:23" ht="15.75" customHeight="1">
       <c r="A463" s="14" t="s">
         <v>993</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:23" ht="12.75">
+    <row r="464" spans="1:23" ht="15.75" customHeight="1">
       <c r="A464" s="5" t="s">
         <v>995</v>
       </c>
@@ -11523,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="12.75">
+    <row r="465" spans="1:3" ht="15.75" customHeight="1">
       <c r="A465" s="5" t="s">
         <v>91</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="12.75">
+    <row r="466" spans="1:3" ht="15.75" customHeight="1">
       <c r="A466" s="14" t="s">
         <v>998</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="12.75">
+    <row r="467" spans="1:3" ht="15.75" customHeight="1">
       <c r="A467" s="5" t="s">
         <v>1000</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="12.75">
+    <row r="468" spans="1:3" ht="15.75" customHeight="1">
       <c r="A468" s="5" t="s">
         <v>1002</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="12.75">
+    <row r="469" spans="1:3" ht="15.75" customHeight="1">
       <c r="A469" s="5" t="s">
         <v>92</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="12.75">
+    <row r="470" spans="1:3" ht="15.75" customHeight="1">
       <c r="A470" s="5" t="s">
         <v>1005</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="12.75">
+    <row r="471" spans="1:3" ht="15.75" customHeight="1">
       <c r="A471" s="5" t="s">
         <v>1007</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="12.75">
+    <row r="472" spans="1:3" ht="15.75" customHeight="1">
       <c r="A472" s="5" t="s">
         <v>93</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="12.75">
+    <row r="473" spans="1:3" ht="15.75" customHeight="1">
       <c r="A473" s="5" t="s">
         <v>81</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="12.75">
+    <row r="474" spans="1:3" ht="15.75" customHeight="1">
       <c r="A474" s="5" t="s">
         <v>82</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="12.75">
+    <row r="475" spans="1:3" ht="15.75" customHeight="1">
       <c r="A475" s="5" t="s">
         <v>1012</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="12.75">
+    <row r="476" spans="1:3" ht="15.75" customHeight="1">
       <c r="A476" s="5" t="s">
         <v>1014</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="12.75">
+    <row r="477" spans="1:3" ht="15.75" customHeight="1">
       <c r="A477" s="5" t="s">
         <v>94</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="12.75">
+    <row r="478" spans="1:3" ht="15.75" customHeight="1">
       <c r="A478" s="5" t="s">
         <v>1017</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="12.75">
+    <row r="479" spans="1:3" ht="15.75" customHeight="1">
       <c r="A479" s="5" t="s">
         <v>1019</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="12.75">
+    <row r="480" spans="1:3" ht="15.75" customHeight="1">
       <c r="A480" s="5" t="s">
         <v>1021</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="12.75">
+    <row r="481" spans="1:3" ht="15.75" customHeight="1">
       <c r="A481" s="5" t="s">
         <v>83</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="12.75">
+    <row r="482" spans="1:3" ht="15.75" customHeight="1">
       <c r="A482" s="5" t="s">
         <v>1024</v>
       </c>
@@ -11721,7 +11721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="12.75">
+    <row r="483" spans="1:3" ht="15.75" customHeight="1">
       <c r="A483" s="5" t="s">
         <v>1026</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="12.75">
+    <row r="484" spans="1:3" ht="15.75" customHeight="1">
       <c r="A484" s="5" t="s">
         <v>1028</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="12.75">
+    <row r="485" spans="1:3" ht="15.75" customHeight="1">
       <c r="A485" s="5" t="s">
         <v>1030</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="12.75">
+    <row r="486" spans="1:3" ht="15.75" customHeight="1">
       <c r="A486" s="5" t="s">
         <v>1032</v>
       </c>
@@ -11765,7 +11765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="12.75">
+    <row r="487" spans="1:3" ht="15.75" customHeight="1">
       <c r="A487" s="5" t="s">
         <v>1034</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="12.75">
+    <row r="488" spans="1:3" ht="15.75" customHeight="1">
       <c r="A488" s="14" t="s">
         <v>1036</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="12.75">
+    <row r="489" spans="1:3" ht="15.75" customHeight="1">
       <c r="A489" s="5" t="s">
         <v>1038</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="12.75">
+    <row r="490" spans="1:3" ht="15.75" customHeight="1">
       <c r="A490" s="5" t="s">
         <v>1040</v>
       </c>
@@ -11809,7 +11809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="12.75">
+    <row r="491" spans="1:3" ht="15.75" customHeight="1">
       <c r="A491" s="5" t="s">
         <v>1042</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="12.75">
+    <row r="492" spans="1:3" ht="15.75" customHeight="1">
       <c r="A492" s="5" t="s">
         <v>1044</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="12.75">
+    <row r="493" spans="1:3" ht="15.75" customHeight="1">
       <c r="A493" s="5" t="s">
         <v>1046</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="12.75">
+    <row r="494" spans="1:3" ht="15.75" customHeight="1">
       <c r="A494" s="5" t="s">
         <v>1048</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="15" customHeight="1">
+    <row r="495" spans="1:3" ht="15.75" customHeight="1">
       <c r="A495" s="5" t="s">
         <v>1050</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="15" customHeight="1">
+    <row r="496" spans="1:3" ht="15.75" customHeight="1">
       <c r="A496" s="5" t="s">
         <v>95</v>
       </c>
@@ -11875,7 +11875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="15" customHeight="1">
+    <row r="497" spans="1:3" ht="15.75" customHeight="1">
       <c r="A497" s="5" t="s">
         <v>1053</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="15" customHeight="1">
+    <row r="498" spans="1:3" ht="15.75" customHeight="1">
       <c r="A498" s="5" t="s">
         <v>96</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="15" customHeight="1">
+    <row r="499" spans="1:3" ht="15.75" customHeight="1">
       <c r="A499" s="5" t="s">
         <v>1056</v>
       </c>
@@ -11908,7 +11908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="15" customHeight="1">
+    <row r="500" spans="1:3" ht="15.75" customHeight="1">
       <c r="A500" s="5" t="s">
         <v>1058</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="15" customHeight="1">
+    <row r="501" spans="1:3" ht="15.75" customHeight="1">
       <c r="A501" s="5" t="s">
         <v>1060</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="15" customHeight="1">
+    <row r="502" spans="1:3" ht="15.75" customHeight="1">
       <c r="A502" s="5" t="s">
         <v>1062</v>
       </c>
@@ -11941,7 +11941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="15" customHeight="1">
+    <row r="503" spans="1:3" ht="15.75" customHeight="1">
       <c r="A503" s="5" t="s">
         <v>97</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="15" customHeight="1">
+    <row r="504" spans="1:3" ht="15.75" customHeight="1">
       <c r="A504" s="5" t="s">
         <v>1065</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="15" customHeight="1">
+    <row r="505" spans="1:3" ht="15.75" customHeight="1">
       <c r="A505" s="5" t="s">
         <v>98</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="15" customHeight="1">
+    <row r="506" spans="1:3" ht="15.75" customHeight="1">
       <c r="A506" s="5" t="s">
         <v>99</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="15" customHeight="1">
+    <row r="507" spans="1:3" ht="15.75" customHeight="1">
       <c r="A507" s="5" t="s">
         <v>1069</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="15" customHeight="1">
+    <row r="508" spans="1:3" ht="15.75" customHeight="1">
       <c r="A508" s="5" t="s">
         <v>100</v>
       </c>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="15" customHeight="1">
+    <row r="509" spans="1:3" ht="15.75" customHeight="1">
       <c r="A509" s="5" t="s">
         <v>84</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="15" customHeight="1">
+    <row r="510" spans="1:3" ht="15.75" customHeight="1">
       <c r="A510" s="5" t="s">
         <v>85</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="15" customHeight="1">
+    <row r="511" spans="1:3" ht="15.75" customHeight="1">
       <c r="A511" s="5" t="s">
         <v>86</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="15" customHeight="1">
+    <row r="512" spans="1:3" ht="15.75" customHeight="1">
       <c r="A512" s="5" t="s">
         <v>87</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="15" customHeight="1">
+    <row r="513" spans="1:3" ht="15.75" customHeight="1">
       <c r="A513" s="5" t="s">
         <v>88</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="15" customHeight="1">
+    <row r="514" spans="1:3" ht="15.75" customHeight="1">
       <c r="A514" s="5" t="s">
         <v>1077</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="15" customHeight="1">
+    <row r="515" spans="1:3" ht="15.75" customHeight="1">
       <c r="A515" s="5" t="s">
         <v>1079</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="15" customHeight="1">
+    <row r="516" spans="1:3" ht="15.75" customHeight="1">
       <c r="A516" s="5" t="s">
         <v>101</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="15" customHeight="1">
+    <row r="517" spans="1:3" ht="15.75" customHeight="1">
       <c r="A517" s="5" t="s">
         <v>102</v>
       </c>
@@ -12106,7 +12106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="15" customHeight="1">
+    <row r="518" spans="1:3" ht="15.75" customHeight="1">
       <c r="A518" s="5" t="s">
         <v>1083</v>
       </c>
@@ -12117,7 +12117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="15" customHeight="1">
+    <row r="519" spans="1:3" ht="15.75" customHeight="1">
       <c r="A519" s="5" t="s">
         <v>1085</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="15" customHeight="1">
+    <row r="520" spans="1:3" ht="15.75" customHeight="1">
       <c r="A520" s="5" t="s">
         <v>1087</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="15" customHeight="1">
+    <row r="521" spans="1:3" ht="15.75" customHeight="1">
       <c r="A521" s="5" t="s">
         <v>1089</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="15" customHeight="1">
+    <row r="522" spans="1:3" ht="15.75" customHeight="1">
       <c r="A522" s="5" t="s">
         <v>89</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="15" customHeight="1">
+    <row r="523" spans="1:3" ht="15.75" customHeight="1">
       <c r="A523" s="5" t="s">
         <v>90</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="15" customHeight="1">
+    <row r="524" spans="1:3" ht="15.75" customHeight="1">
       <c r="A524" s="5" t="s">
         <v>1093</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="15" customHeight="1">
+    <row r="525" spans="1:3" ht="15.75" customHeight="1">
       <c r="A525" s="5" t="s">
         <v>1095</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="15" customHeight="1">
+    <row r="526" spans="1:3" ht="15.75" customHeight="1">
       <c r="A526" s="5" t="s">
         <v>1097</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="15">
+    <row r="527" spans="1:3" ht="15.75" customHeight="1">
       <c r="A527" s="10" t="s">
         <v>1099</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="12.75">
+    <row r="528" spans="1:3" ht="15.75" customHeight="1">
       <c r="A528" s="5" t="s">
         <v>109</v>
       </c>
@@ -12227,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="12.75">
+    <row r="529" spans="1:3" ht="15.75" customHeight="1">
       <c r="A529" s="5" t="s">
         <v>1102</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="12.75">
+    <row r="530" spans="1:3" ht="15.75" customHeight="1">
       <c r="A530" s="5" t="s">
         <v>1104</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="12.75">
+    <row r="531" spans="1:3" ht="15.75" customHeight="1">
       <c r="A531" s="5" t="s">
         <v>1106</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="12.75">
+    <row r="532" spans="1:3" ht="15.75" customHeight="1">
       <c r="A532" s="5" t="s">
         <v>1108</v>
       </c>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="12.75">
+    <row r="533" spans="1:3" ht="15.75" customHeight="1">
       <c r="A533" s="11" t="s">
         <v>1110</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="12.75">
+    <row r="534" spans="1:3" ht="15.75" customHeight="1">
       <c r="A534" s="5" t="s">
         <v>121</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="12.75">
+    <row r="535" spans="1:3" ht="15.75" customHeight="1">
       <c r="A535" s="5" t="s">
         <v>144</v>
       </c>
@@ -12304,7 +12304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="12.75">
+    <row r="536" spans="1:3" ht="15.75" customHeight="1">
       <c r="A536" s="5" t="s">
         <v>1114</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="12.75">
+    <row r="537" spans="1:3" ht="15.75" customHeight="1">
       <c r="A537" s="5" t="s">
         <v>1116</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="12.75">
+    <row r="538" spans="1:3" ht="15.75" customHeight="1">
       <c r="A538" s="6" t="s">
         <v>1118</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="12.75">
+    <row r="539" spans="1:3" ht="15.75" customHeight="1">
       <c r="A539" s="5" t="s">
         <v>1120</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="12.75">
+    <row r="540" spans="1:3" ht="15.75" customHeight="1">
       <c r="A540" s="5" t="s">
         <v>1122</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="12.75">
+    <row r="541" spans="1:3" ht="15.75" customHeight="1">
       <c r="A541" s="5" t="s">
         <v>1124</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="12.75">
+    <row r="542" spans="1:3" ht="15.75" customHeight="1">
       <c r="A542" s="11" t="s">
         <v>1126</v>
       </c>
@@ -12381,7 +12381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="12.75">
+    <row r="543" spans="1:3" ht="15.75" customHeight="1">
       <c r="A543" s="5" t="s">
         <v>1128</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="12.75">
+    <row r="544" spans="1:3" ht="15.75" customHeight="1">
       <c r="A544" s="5" t="s">
         <v>124</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="12.75">
+    <row r="545" spans="1:3" ht="15.75" customHeight="1">
       <c r="A545" s="5" t="s">
         <v>1131</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="12.75">
+    <row r="546" spans="1:3" ht="15.75" customHeight="1">
       <c r="A546" s="5" t="s">
         <v>1133</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="12.75">
+    <row r="547" spans="1:3" ht="15.75" customHeight="1">
       <c r="A547" s="5" t="s">
         <v>123</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="12.75">
+    <row r="548" spans="1:3" ht="15.75" customHeight="1">
       <c r="A548" s="5" t="s">
         <v>1136</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="12.75">
+    <row r="549" spans="1:3" ht="15.75" customHeight="1">
       <c r="A549" s="5" t="s">
         <v>1138</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="12.75">
+    <row r="550" spans="1:3" ht="15.75" customHeight="1">
       <c r="A550" s="5" t="s">
         <v>1140</v>
       </c>
@@ -12469,7 +12469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="12.75">
+    <row r="551" spans="1:3" ht="15.75" customHeight="1">
       <c r="A551" s="6" t="s">
         <v>1142</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="12.75">
+    <row r="552" spans="1:3" ht="15.75" customHeight="1">
       <c r="A552" s="5" t="s">
         <v>132</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="12.75">
+    <row r="553" spans="1:3" ht="15.75" customHeight="1">
       <c r="A553" s="5" t="s">
         <v>131</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="12.75">
+    <row r="554" spans="1:3" ht="15.75" customHeight="1">
       <c r="A554" s="5" t="s">
         <v>247</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="12.75">
+    <row r="555" spans="1:3" ht="15.75" customHeight="1">
       <c r="A555" s="5" t="s">
         <v>1147</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="12.75">
+    <row r="556" spans="1:3" ht="15.75" customHeight="1">
       <c r="A556" s="5" t="s">
         <v>1149</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="12.75">
+    <row r="557" spans="1:3" ht="15.75" customHeight="1">
       <c r="A557" s="6" t="s">
         <v>1151</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="12.75">
+    <row r="558" spans="1:3" ht="15.75" customHeight="1">
       <c r="A558" s="5" t="s">
         <v>1153</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="12.75">
+    <row r="559" spans="1:3" ht="15.75" customHeight="1">
       <c r="A559" s="11" t="s">
         <v>1155</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="12.75">
+    <row r="560" spans="1:3" ht="15.75" customHeight="1">
       <c r="A560" s="5" t="s">
         <v>1157</v>
       </c>
@@ -12579,7 +12579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="12.75">
+    <row r="561" spans="1:3" ht="15.75" customHeight="1">
       <c r="A561" s="5" t="s">
         <v>1159</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="12.75">
+    <row r="562" spans="1:3" ht="15.75" customHeight="1">
       <c r="A562" s="5" t="s">
         <v>1161</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="12.75">
+    <row r="563" spans="1:3" ht="15.75" customHeight="1">
       <c r="A563" s="9" t="s">
         <v>1163</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="12.75">
+    <row r="564" spans="1:3" ht="15.75" customHeight="1">
       <c r="A564" s="5" t="s">
         <v>1165</v>
       </c>
@@ -12623,7 +12623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="12.75">
+    <row r="565" spans="1:3" ht="15.75" customHeight="1">
       <c r="A565" s="5" t="s">
         <v>1167</v>
       </c>
@@ -12634,7 +12634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="12.75">
+    <row r="566" spans="1:3" ht="15.75" customHeight="1">
       <c r="A566" s="5" t="s">
         <v>1169</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="12.75">
+    <row r="567" spans="1:3" ht="15.75" customHeight="1">
       <c r="A567" s="5" t="s">
         <v>1171</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="12.75">
+    <row r="568" spans="1:3" ht="15.75" customHeight="1">
       <c r="A568" s="5" t="s">
         <v>1173</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="12.75">
+    <row r="569" spans="1:3" ht="15.75" customHeight="1">
       <c r="A569" s="5" t="s">
         <v>143</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="12.75">
+    <row r="570" spans="1:3" ht="15.75" customHeight="1">
       <c r="A570" s="5" t="s">
         <v>1176</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="12.75">
+    <row r="571" spans="1:3" ht="15.75" customHeight="1">
       <c r="A571" s="5" t="s">
         <v>1178</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="12.75">
+    <row r="572" spans="1:3" ht="15.75" customHeight="1">
       <c r="A572" s="5" t="s">
         <v>142</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="12.75">
+    <row r="573" spans="1:3" ht="15.75" customHeight="1">
       <c r="A573" s="5" t="s">
         <v>1181</v>
       </c>
@@ -12722,7 +12722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="12.75">
+    <row r="574" spans="1:3" ht="15.75" customHeight="1">
       <c r="A574" s="5" t="s">
         <v>110</v>
       </c>
@@ -12733,7 +12733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="15">
+    <row r="575" spans="1:3" ht="15.75" customHeight="1">
       <c r="A575" s="10" t="s">
         <v>1184</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="12.75">
+    <row r="576" spans="1:3" ht="15.75" customHeight="1">
       <c r="A576" s="5" t="s">
         <v>1186</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="12.75">
+    <row r="577" spans="1:3" ht="15.75" customHeight="1">
       <c r="A577" s="5" t="s">
         <v>1188</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="12.75">
+    <row r="578" spans="1:3" ht="15.75" customHeight="1">
       <c r="A578" s="5" t="s">
         <v>1190</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="12.75">
+    <row r="579" spans="1:3" ht="15.75" customHeight="1">
       <c r="A579" s="6" t="s">
         <v>1192</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="12.75">
+    <row r="580" spans="1:3" ht="15.75" customHeight="1">
       <c r="A580" s="5" t="s">
         <v>1194</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="12.75">
+    <row r="581" spans="1:3" ht="15.75" customHeight="1">
       <c r="A581" s="5" t="s">
         <v>1196</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="12.75">
+    <row r="582" spans="1:3" ht="15.75" customHeight="1">
       <c r="A582" s="5" t="s">
         <v>1198</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="12.75">
+    <row r="583" spans="1:3" ht="15.75" customHeight="1">
       <c r="A583" s="5" t="s">
         <v>1200</v>
       </c>
@@ -12832,7 +12832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="12.75">
+    <row r="584" spans="1:3" ht="15.75" customHeight="1">
       <c r="A584" s="11" t="s">
         <v>1202</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="12.75">
+    <row r="585" spans="1:3" ht="15.75" customHeight="1">
       <c r="A585" s="5" t="s">
         <v>1204</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="12.75">
+    <row r="586" spans="1:3" ht="15.75" customHeight="1">
       <c r="A586" s="6" t="s">
         <v>1206</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="12.75">
+    <row r="587" spans="1:3" ht="15.75" customHeight="1">
       <c r="A587" s="6" t="s">
         <v>1208</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="12.75">
+    <row r="588" spans="1:3" ht="15.75" customHeight="1">
       <c r="A588" s="6" t="s">
         <v>1210</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="12.75">
+    <row r="589" spans="1:3" ht="15.75" customHeight="1">
       <c r="A589" s="5" t="s">
         <v>1212</v>
       </c>
@@ -12898,7 +12898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="12.75">
+    <row r="590" spans="1:3" ht="15.75" customHeight="1">
       <c r="A590" s="5" t="s">
         <v>1214</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="15">
+    <row r="591" spans="1:3" ht="15.75" customHeight="1">
       <c r="A591" s="10" t="s">
         <v>1216</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="12.75">
+    <row r="592" spans="1:3" ht="15.75" customHeight="1">
       <c r="A592" s="5" t="s">
         <v>137</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="12.75">
+    <row r="593" spans="1:3" ht="15.75" customHeight="1">
       <c r="A593" s="5" t="s">
         <v>1219</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="12.75">
+    <row r="594" spans="1:3" ht="15.75" customHeight="1">
       <c r="A594" s="5" t="s">
         <v>1221</v>
       </c>
@@ -12953,7 +12953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="12.75">
+    <row r="595" spans="1:3" ht="15.75" customHeight="1">
       <c r="A595" s="5" t="s">
         <v>111</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="12.75">
+    <row r="596" spans="1:3" ht="15.75" customHeight="1">
       <c r="A596" s="5" t="s">
         <v>1224</v>
       </c>
@@ -12975,7 +12975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="12.75">
+    <row r="597" spans="1:3" ht="15.75" customHeight="1">
       <c r="A597" s="5" t="s">
         <v>1226</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="12.75">
+    <row r="598" spans="1:3" ht="15.75" customHeight="1">
       <c r="A598" s="5" t="s">
         <v>117</v>
       </c>
@@ -12997,7 +12997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="12.75">
+    <row r="599" spans="1:3" ht="15.75" customHeight="1">
       <c r="A599" s="5" t="s">
         <v>1229</v>
       </c>
@@ -13008,7 +13008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="12.75">
+    <row r="600" spans="1:3" ht="15.75" customHeight="1">
       <c r="A600" s="5" t="s">
         <v>1231</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="12.75">
+    <row r="601" spans="1:3" ht="15.75" customHeight="1">
       <c r="A601" s="5" t="s">
         <v>1233</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="12.75">
+    <row r="602" spans="1:3" ht="15.75" customHeight="1">
       <c r="A602" s="5" t="s">
         <v>1235</v>
       </c>
@@ -13041,7 +13041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="12.75">
+    <row r="603" spans="1:3" ht="15.75" customHeight="1">
       <c r="A603" s="5" t="s">
         <v>1237</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="12.75">
+    <row r="604" spans="1:3" ht="15.75" customHeight="1">
       <c r="A604" s="5" t="s">
         <v>1239</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="12.75">
+    <row r="605" spans="1:3" ht="15.75" customHeight="1">
       <c r="A605" s="5" t="s">
         <v>1241</v>
       </c>
@@ -13074,7 +13074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="12.75">
+    <row r="606" spans="1:3" ht="15.75" customHeight="1">
       <c r="A606" s="5" t="s">
         <v>1243</v>
       </c>
@@ -13085,7 +13085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="12.75">
+    <row r="607" spans="1:3" ht="15.75" customHeight="1">
       <c r="A607" s="5" t="s">
         <v>1245</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="12.75">
+    <row r="736" spans="1:3" ht="15.75" customHeight="1">
       <c r="A736" s="5" t="s">
         <v>1474</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="12.75">
+    <row r="737" spans="1:3" ht="15.75" customHeight="1">
       <c r="A737" s="5" t="s">
         <v>1476</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="12.75">
+    <row r="738" spans="1:3" ht="15.75" customHeight="1">
       <c r="A738" s="5" t="s">
         <v>1478</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="12.75">
+    <row r="739" spans="1:3" ht="15.75" customHeight="1">
       <c r="A739" s="5" t="s">
         <v>145</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="12.75">
+    <row r="740" spans="1:3" ht="15.75" customHeight="1">
       <c r="A740" s="5" t="s">
         <v>1481</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="12.75">
+    <row r="741" spans="1:3" ht="15.75" customHeight="1">
       <c r="A741" s="5" t="s">
         <v>1483</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="12.75">
+    <row r="742" spans="1:3" ht="15.75" customHeight="1">
       <c r="A742" s="5" t="s">
         <v>1485</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="12.75">
+    <row r="743" spans="1:3" ht="15.75" customHeight="1">
       <c r="A743" s="5" t="s">
         <v>149</v>
       </c>
@@ -14592,7 +14592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="12.75">
+    <row r="744" spans="1:3" ht="15.75" customHeight="1">
       <c r="A744" s="5" t="s">
         <v>1488</v>
       </c>
@@ -14603,7 +14603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="12.75">
+    <row r="745" spans="1:3" ht="15.75" customHeight="1">
       <c r="A745" s="5" t="s">
         <v>1490</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="12.75">
+    <row r="746" spans="1:3" ht="15.75" customHeight="1">
       <c r="A746" s="11" t="s">
         <v>1492</v>
       </c>
@@ -14625,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="12.75">
+    <row r="747" spans="1:3" ht="15.75" customHeight="1">
       <c r="A747" s="5" t="s">
         <v>1494</v>
       </c>
@@ -14636,7 +14636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="12.75">
+    <row r="748" spans="1:3" ht="15.75" customHeight="1">
       <c r="A748" s="5" t="s">
         <v>1496</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="12.75">
+    <row r="749" spans="1:3" ht="15.75" customHeight="1">
       <c r="A749" s="5" t="s">
         <v>1498</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="12.75">
+    <row r="750" spans="1:3" ht="15.75" customHeight="1">
       <c r="A750" s="5" t="s">
         <v>1500</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="12.75">
+    <row r="751" spans="1:3" ht="15.75" customHeight="1">
       <c r="A751" s="5" t="s">
         <v>1502</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="12.75">
+    <row r="752" spans="1:3" ht="15.75" customHeight="1">
       <c r="A752" s="5" t="s">
         <v>1504</v>
       </c>
@@ -14691,7 +14691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="12.75">
+    <row r="753" spans="1:3" ht="15.75" customHeight="1">
       <c r="A753" s="11" t="s">
         <v>1506</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="12.75">
+    <row r="754" spans="1:3" ht="15.75" customHeight="1">
       <c r="A754" s="5" t="s">
         <v>1508</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="12.75">
+    <row r="755" spans="1:3" ht="15.75" customHeight="1">
       <c r="A755" s="5" t="s">
         <v>1510</v>
       </c>
@@ -14724,7 +14724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="12.75">
+    <row r="756" spans="1:3" ht="15.75" customHeight="1">
       <c r="A756" s="5" t="s">
         <v>1512</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="12.75">
+    <row r="757" spans="1:3" ht="15.75" customHeight="1">
       <c r="A757" s="5" t="s">
         <v>1514</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="12.75">
+    <row r="758" spans="1:3" ht="15.75" customHeight="1">
       <c r="A758" s="5" t="s">
         <v>1516</v>
       </c>
@@ -14757,7 +14757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="12.75">
+    <row r="759" spans="1:3" ht="15.75" customHeight="1">
       <c r="A759" s="5" t="s">
         <v>1518</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="12.75">
+    <row r="760" spans="1:3" ht="15.75" customHeight="1">
       <c r="A760" s="5" t="s">
         <v>1520</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="12.75">
+    <row r="761" spans="1:3" ht="15.75" customHeight="1">
       <c r="A761" s="11" t="s">
         <v>1522</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="12.75">
+    <row r="762" spans="1:3" ht="15.75" customHeight="1">
       <c r="A762" s="5" t="s">
         <v>1524</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="12.75">
+    <row r="763" spans="1:3" ht="15.75" customHeight="1">
       <c r="A763" s="5" t="s">
         <v>1526</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="12.75">
+    <row r="764" spans="1:3" ht="15.75" customHeight="1">
       <c r="A764" s="5" t="s">
         <v>1528</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="12.75">
+    <row r="765" spans="1:3" ht="15.75" customHeight="1">
       <c r="A765" s="11" t="s">
         <v>1530</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="12.75">
+    <row r="766" spans="1:3" ht="15.75" customHeight="1">
       <c r="A766" s="5" t="s">
         <v>1532</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="12.75">
+    <row r="767" spans="1:3" ht="15.75" customHeight="1">
       <c r="A767" s="5" t="s">
         <v>1534</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="12.75">
+    <row r="768" spans="1:3" ht="15.75" customHeight="1">
       <c r="A768" s="5" t="s">
         <v>1536</v>
       </c>
@@ -14867,7 +14867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="12.75">
+    <row r="769" spans="1:3" ht="15.75" customHeight="1">
       <c r="A769" s="5" t="s">
         <v>1538</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:3" ht="12.75">
+    <row r="770" spans="1:3" ht="15.75" customHeight="1">
       <c r="A770" s="5" t="s">
         <v>1540</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:3" ht="12.75">
+    <row r="771" spans="1:3" ht="15.75" customHeight="1">
       <c r="A771" s="5" t="s">
         <v>1542</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:3" ht="12.75">
+    <row r="772" spans="1:3" ht="15.75" customHeight="1">
       <c r="A772" s="5" t="s">
         <v>1544</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:3" ht="12.75">
+    <row r="773" spans="1:3" ht="15.75" customHeight="1">
       <c r="A773" s="11" t="s">
         <v>1546</v>
       </c>
@@ -14922,7 +14922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:3" ht="12.75">
+    <row r="774" spans="1:3" ht="15.75" customHeight="1">
       <c r="A774" s="5" t="s">
         <v>1548</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:3" ht="12.75">
+    <row r="775" spans="1:3" ht="15.75" customHeight="1">
       <c r="A775" s="5" t="s">
         <v>1550</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:3" ht="12.75">
+    <row r="776" spans="1:3" ht="15.75" customHeight="1">
       <c r="A776" s="5" t="s">
         <v>1552</v>
       </c>
@@ -14955,7 +14955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:3" ht="12.75">
+    <row r="777" spans="1:3" ht="15.75" customHeight="1">
       <c r="A777" s="11" t="s">
         <v>1554</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:3" ht="12.75">
+    <row r="778" spans="1:3" ht="15.75" customHeight="1">
       <c r="A778" s="11" t="s">
         <v>1556</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:3" ht="12.75">
+    <row r="779" spans="1:3" ht="15.75" customHeight="1">
       <c r="A779" s="5" t="s">
         <v>1558</v>
       </c>
@@ -14988,7 +14988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:3" ht="12.75">
+    <row r="780" spans="1:3" ht="15.75" customHeight="1">
       <c r="A780" s="5" t="s">
         <v>1560</v>
       </c>
@@ -14999,7 +14999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:3" ht="12.75">
+    <row r="781" spans="1:3" ht="15.75" customHeight="1">
       <c r="A781" s="5" t="s">
         <v>1562</v>
       </c>
@@ -15010,7 +15010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:3" ht="12.75">
+    <row r="782" spans="1:3" ht="15.75" customHeight="1">
       <c r="A782" s="5" t="s">
         <v>1564</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:3" ht="12.75">
+    <row r="783" spans="1:3" ht="15.75" customHeight="1">
       <c r="A783" s="5" t="s">
         <v>1566</v>
       </c>
@@ -15032,7 +15032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:3" ht="12.75">
+    <row r="784" spans="1:3" ht="15.75" customHeight="1">
       <c r="A784" s="5" t="s">
         <v>1568</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:3" ht="12.75">
+    <row r="785" spans="1:3" ht="15.75" customHeight="1">
       <c r="A785" s="5" t="s">
         <v>1570</v>
       </c>
@@ -15054,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:3" ht="12.75">
+    <row r="786" spans="1:3" ht="15.75" customHeight="1">
       <c r="A786" s="11" t="s">
         <v>1572</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="12.75">
+    <row r="787" spans="1:3" ht="15.75" customHeight="1">
       <c r="A787" s="5" t="s">
         <v>1574</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:3" ht="12.75">
+    <row r="788" spans="1:3" ht="15.75" customHeight="1">
       <c r="A788" s="11" t="s">
         <v>1576</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:3" ht="12.75">
+    <row r="789" spans="1:3" ht="15.75" customHeight="1">
       <c r="A789" s="5" t="s">
         <v>1578</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:3" ht="12.75">
+    <row r="790" spans="1:3" ht="15.75" customHeight="1">
       <c r="A790" s="5" t="s">
         <v>1580</v>
       </c>
@@ -15109,7 +15109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:3" ht="12.75">
+    <row r="791" spans="1:3" ht="15.75" customHeight="1">
       <c r="A791" s="5" t="s">
         <v>1582</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:3" ht="12.75">
+    <row r="792" spans="1:3" ht="15.75" customHeight="1">
       <c r="A792" s="5" t="s">
         <v>1584</v>
       </c>
@@ -15131,7 +15131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:3" ht="12.75">
+    <row r="793" spans="1:3" ht="15.75" customHeight="1">
       <c r="A793" s="5" t="s">
         <v>1586</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:3" ht="12.75">
+    <row r="794" spans="1:3" ht="15.75" customHeight="1">
       <c r="A794" s="5" t="s">
         <v>1588</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:3" ht="12.75">
+    <row r="795" spans="1:3" ht="15.75" customHeight="1">
       <c r="A795" s="11" t="s">
         <v>1590</v>
       </c>
@@ -15164,7 +15164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:3" ht="12.75">
+    <row r="796" spans="1:3" ht="15.75" customHeight="1">
       <c r="A796" s="15" t="s">
         <v>1592</v>
       </c>
@@ -15175,7 +15175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:3" ht="12.75">
+    <row r="797" spans="1:3" ht="15.75" customHeight="1">
       <c r="A797" s="5" t="s">
         <v>1594</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:3" ht="12.75">
+    <row r="798" spans="1:3" ht="15.75" customHeight="1">
       <c r="A798" s="16" t="s">
         <v>148</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:3" ht="12.75">
+    <row r="799" spans="1:3" ht="15.75" customHeight="1">
       <c r="A799" s="17" t="s">
         <v>146</v>
       </c>
@@ -15208,7 +15208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:3" ht="12.75">
+    <row r="800" spans="1:3" ht="15.75" customHeight="1">
       <c r="A800" s="5" t="s">
         <v>1598</v>
       </c>
@@ -15219,7 +15219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:3" ht="12.75">
+    <row r="801" spans="1:3" ht="15.75" customHeight="1">
       <c r="A801" s="5" t="s">
         <v>1600</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:3" ht="12.75">
+    <row r="802" spans="1:3" ht="15.75" customHeight="1">
       <c r="A802" s="5" t="s">
         <v>1602</v>
       </c>
@@ -15241,7 +15241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:3" ht="12.75">
+    <row r="803" spans="1:3" ht="15.75" customHeight="1">
       <c r="A803" s="5" t="s">
         <v>1604</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:3" ht="12.75">
+    <row r="804" spans="1:3" ht="15.75" customHeight="1">
       <c r="A804" s="11" t="s">
         <v>1606</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:3" ht="12.75">
+    <row r="805" spans="1:3" ht="15.75" customHeight="1">
       <c r="A805" s="5" t="s">
         <v>1608</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:3" ht="12.75">
+    <row r="806" spans="1:3" ht="15.75" customHeight="1">
       <c r="A806" s="5" t="s">
         <v>1610</v>
       </c>
@@ -15285,7 +15285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:3" ht="12.75">
+    <row r="807" spans="1:3" ht="15.75" customHeight="1">
       <c r="A807" s="5" t="s">
         <v>1612</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:3" ht="12.75">
+    <row r="808" spans="1:3" ht="15.75" customHeight="1">
       <c r="A808" s="5" t="s">
         <v>1614</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:3" ht="12.75">
+    <row r="809" spans="1:3" ht="15.75" customHeight="1">
       <c r="A809" s="5" t="s">
         <v>1616</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:3" ht="12.75">
+    <row r="810" spans="1:3" ht="15.75" customHeight="1">
       <c r="A810" s="11" t="s">
         <v>1618</v>
       </c>
@@ -15329,7 +15329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:3" ht="12.75">
+    <row r="811" spans="1:3" ht="15.75" customHeight="1">
       <c r="A811" s="5" t="s">
         <v>1620</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:3" ht="12.75">
+    <row r="812" spans="1:3" ht="15.75" customHeight="1">
       <c r="A812" s="5" t="s">
         <v>1622</v>
       </c>
@@ -15351,7 +15351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:3" ht="12.75">
+    <row r="813" spans="1:3" ht="15.75" customHeight="1">
       <c r="A813" s="5" t="s">
         <v>1624</v>
       </c>
@@ -15362,7 +15362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:3" ht="12.75">
+    <row r="814" spans="1:3" ht="15.75" customHeight="1">
       <c r="A814" s="5" t="s">
         <v>1626</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:3" ht="12.75">
+    <row r="815" spans="1:3" ht="15.75" customHeight="1">
       <c r="A815" s="5" t="s">
         <v>1628</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:3" ht="12.75">
+    <row r="816" spans="1:3" ht="15.75" customHeight="1">
       <c r="A816" s="11" t="s">
         <v>1630</v>
       </c>
@@ -15395,7 +15395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:3" ht="12.75">
+    <row r="817" spans="1:3" ht="15.75" customHeight="1">
       <c r="A817" s="11" t="s">
         <v>1632</v>
       </c>
@@ -15406,7 +15406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:3" ht="12.75">
+    <row r="818" spans="1:3" ht="15.75" customHeight="1">
       <c r="A818" s="11" t="s">
         <v>1634</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:3" ht="12.75">
+    <row r="819" spans="1:3" ht="15.75" customHeight="1">
       <c r="A819" s="5" t="s">
         <v>1636</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:3" ht="12.75">
+    <row r="820" spans="1:3" ht="15.75" customHeight="1">
       <c r="A820" s="5" t="s">
         <v>1638</v>
       </c>
@@ -15439,7 +15439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:3" ht="12.75">
+    <row r="821" spans="1:3" ht="15.75" customHeight="1">
       <c r="A821" s="5" t="s">
         <v>1640</v>
       </c>
@@ -15450,7 +15450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:3" ht="12.75">
+    <row r="822" spans="1:3" ht="15.75" customHeight="1">
       <c r="A822" s="5" t="s">
         <v>1642</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:3" ht="12.75">
+    <row r="823" spans="1:3" ht="15.75" customHeight="1">
       <c r="A823" s="5" t="s">
         <v>1644</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:3" ht="12.75">
+    <row r="824" spans="1:3" ht="15.75" customHeight="1">
       <c r="A824" s="5" t="s">
         <v>1646</v>
       </c>
@@ -15483,7 +15483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:3" ht="12.75">
+    <row r="825" spans="1:3" ht="15.75" customHeight="1">
       <c r="A825" s="5" t="s">
         <v>1648</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:3" ht="12.75">
+    <row r="826" spans="1:3" ht="15.75" customHeight="1">
       <c r="A826" s="5" t="s">
         <v>1650</v>
       </c>
@@ -15505,7 +15505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:3" ht="12.75">
+    <row r="827" spans="1:3" ht="15.75" customHeight="1">
       <c r="A827" s="5" t="s">
         <v>1652</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:3" ht="12.75">
+    <row r="828" spans="1:3" ht="15.75" customHeight="1">
       <c r="A828" s="11" t="s">
         <v>1654</v>
       </c>
@@ -15527,7 +15527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:3" ht="12.75">
+    <row r="829" spans="1:3" ht="15.75" customHeight="1">
       <c r="A829" s="1" t="s">
         <v>1656</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:3" ht="12.75">
+    <row r="830" spans="1:3" ht="15.75" customHeight="1">
       <c r="A830" s="1" t="s">
         <v>1658</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:3" ht="12.75">
+    <row r="831" spans="1:3" ht="15.75" customHeight="1">
       <c r="A831" s="1" t="s">
         <v>147</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:3" ht="12.75">
+    <row r="832" spans="1:3" ht="15.75" customHeight="1">
       <c r="A832" s="18" t="s">
         <v>1661</v>
       </c>
@@ -15571,7 +15571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:3" ht="12.75">
+    <row r="833" spans="1:3" ht="15.75" customHeight="1">
       <c r="A833" s="11" t="s">
         <v>1663</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:3" ht="12.75">
+    <row r="834" spans="1:3" ht="15.75" customHeight="1">
       <c r="A834" s="1" t="s">
         <v>1665</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:3" ht="12.75">
+    <row r="835" spans="1:3" ht="15.75" customHeight="1">
       <c r="A835" s="1" t="s">
         <v>1667</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:3" ht="12.75">
+    <row r="836" spans="1:3" ht="15.75" customHeight="1">
       <c r="A836" s="1" t="s">
         <v>1669</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:3" ht="12.75">
+    <row r="837" spans="1:3" ht="15.75" customHeight="1">
       <c r="A837" s="1" t="s">
         <v>1671</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:3" ht="12.75">
+    <row r="838" spans="1:3" ht="15.75" customHeight="1">
       <c r="A838" s="1" t="s">
         <v>1673</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:3" ht="12.75">
+    <row r="839" spans="1:3" ht="15.75" customHeight="1">
       <c r="A839" s="11" t="s">
         <v>1675</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:3" ht="12.75">
+    <row r="840" spans="1:3" ht="15.75" customHeight="1">
       <c r="A840" s="1" t="s">
         <v>1677</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:3" ht="12.75">
+    <row r="841" spans="1:3" ht="15.75" customHeight="1">
       <c r="A841" s="1" t="s">
         <v>1679</v>
       </c>
@@ -15670,7 +15670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:3" ht="12.75">
+    <row r="842" spans="1:3" ht="15.75" customHeight="1">
       <c r="A842" s="1" t="s">
         <v>1681</v>
       </c>
@@ -15681,7 +15681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:3" ht="12.75">
+    <row r="843" spans="1:3" ht="15.75" customHeight="1">
       <c r="A843" s="1" t="s">
         <v>1683</v>
       </c>
@@ -15692,7 +15692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:3" ht="12.75">
+    <row r="844" spans="1:3" ht="15.75" customHeight="1">
       <c r="A844" s="1" t="s">
         <v>1685</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:3" ht="12.75">
+    <row r="845" spans="1:3" ht="15.75" customHeight="1">
       <c r="A845" s="1" t="s">
         <v>1687</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:3" ht="12.75">
+    <row r="846" spans="1:3" ht="15.75" customHeight="1">
       <c r="A846" s="11" t="s">
         <v>1689</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:3" ht="12.75">
+    <row r="847" spans="1:3" ht="15.75" customHeight="1">
       <c r="A847" s="1" t="s">
         <v>1691</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:3" ht="12.75">
+    <row r="848" spans="1:3" ht="15.75" customHeight="1">
       <c r="A848" s="1" t="s">
         <v>1693</v>
       </c>
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:3" ht="12.75">
+    <row r="849" spans="1:3" ht="15.75" customHeight="1">
       <c r="A849" s="11" t="s">
         <v>1695</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:3" ht="12.75">
+    <row r="850" spans="1:3" ht="15.75" customHeight="1">
       <c r="A850" s="1" t="s">
         <v>1697</v>
       </c>
@@ -15769,7 +15769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:3" ht="12.75">
+    <row r="851" spans="1:3" ht="15.75" customHeight="1">
       <c r="A851" s="1" t="s">
         <v>1699</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:3" ht="12.75">
+    <row r="852" spans="1:3" ht="15.75" customHeight="1">
       <c r="A852" s="1" t="s">
         <v>1701</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:3" ht="12.75">
+    <row r="853" spans="1:3" ht="15.75" customHeight="1">
       <c r="A853" s="11" t="s">
         <v>1703</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:3" ht="12.75">
+    <row r="854" spans="1:3" ht="15.75" customHeight="1">
       <c r="A854" s="11" t="s">
         <v>1705</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:3" ht="12.75">
+    <row r="855" spans="1:3" ht="15.75" customHeight="1">
       <c r="A855" s="1" t="s">
         <v>1707</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:3" ht="12.75">
+    <row r="856" spans="1:3" ht="15.75" customHeight="1">
       <c r="A856" s="1" t="s">
         <v>1709</v>
       </c>
@@ -15835,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:3" ht="12.75">
+    <row r="857" spans="1:3" ht="15.75" customHeight="1">
       <c r="A857" s="1" t="s">
         <v>1711</v>
       </c>
@@ -15846,7 +15846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:3" ht="12.75">
+    <row r="858" spans="1:3" ht="15.75" customHeight="1">
       <c r="A858" s="1" t="s">
         <v>1713</v>
       </c>
@@ -15857,7 +15857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:3" ht="12.75">
+    <row r="859" spans="1:3" ht="15.75" customHeight="1">
       <c r="A859" s="1" t="s">
         <v>1715</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:3" ht="12.75">
+    <row r="860" spans="1:3" ht="15.75" customHeight="1">
       <c r="A860" s="1" t="s">
         <v>1717</v>
       </c>
@@ -15879,7 +15879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:3" ht="12.75">
+    <row r="861" spans="1:3" ht="15.75" customHeight="1">
       <c r="A861" s="1" t="s">
         <v>1719</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:3" ht="12.75">
+    <row r="862" spans="1:3" ht="15.75" customHeight="1">
       <c r="A862" s="1" t="s">
         <v>1721</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:3" ht="12.75">
+    <row r="863" spans="1:3" ht="15.75" customHeight="1">
       <c r="A863" s="1" t="s">
         <v>1723</v>
       </c>
@@ -15912,7 +15912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:3" ht="12.75">
+    <row r="864" spans="1:3" ht="15.75" customHeight="1">
       <c r="A864" s="1" t="s">
         <v>1725</v>
       </c>
@@ -15923,7 +15923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:3" ht="12.75">
+    <row r="865" spans="1:3" ht="15.75" customHeight="1">
       <c r="A865" s="11" t="s">
         <v>1727</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:3" ht="12.75">
+    <row r="866" spans="1:3" ht="15.75" customHeight="1">
       <c r="A866" s="11" t="s">
         <v>1729</v>
       </c>
@@ -15945,7 +15945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:3" ht="12.75">
+    <row r="867" spans="1:3" ht="15.75" customHeight="1">
       <c r="A867" s="11" t="s">
         <v>1731</v>
       </c>
@@ -15956,7 +15956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:3" ht="12.75">
+    <row r="868" spans="1:3" ht="15.75" customHeight="1">
       <c r="A868" s="11" t="s">
         <v>1733</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:3" ht="12.75">
+    <row r="869" spans="1:3" ht="15.75" customHeight="1">
       <c r="A869" s="11" t="s">
         <v>1735</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:3" ht="12.75">
+    <row r="870" spans="1:3" ht="15.75" customHeight="1">
       <c r="A870" s="11" t="s">
         <v>1737</v>
       </c>
@@ -15989,7 +15989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:3" ht="12.75">
+    <row r="871" spans="1:3" ht="15.75" customHeight="1">
       <c r="A871" s="5" t="s">
         <v>1739</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:3" ht="12.75">
+    <row r="872" spans="1:3" ht="15.75" customHeight="1">
       <c r="A872" s="1" t="s">
         <v>1741</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:3" ht="12.75">
+    <row r="873" spans="1:3" ht="15.75" customHeight="1">
       <c r="A873" s="1" t="s">
         <v>1743</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:3" ht="12.75">
+    <row r="874" spans="1:3" ht="15.75" customHeight="1">
       <c r="A874" s="1" t="s">
         <v>1745</v>
       </c>
@@ -16033,7 +16033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:3" ht="12.75">
+    <row r="875" spans="1:3" ht="15.75" customHeight="1">
       <c r="A875" s="1" t="s">
         <v>1747</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:3" ht="12.75">
+    <row r="876" spans="1:3" ht="15.75" customHeight="1">
       <c r="A876" s="1" t="s">
         <v>1749</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:3" ht="12.75">
+    <row r="877" spans="1:3" ht="15.75" customHeight="1">
       <c r="A877" s="5" t="s">
         <v>1751</v>
       </c>
@@ -16066,7 +16066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:3" ht="12.75">
+    <row r="878" spans="1:3" ht="15.75" customHeight="1">
       <c r="A878" s="1" t="s">
         <v>1753</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:3" ht="12.75">
+    <row r="879" spans="1:3" ht="15.75" customHeight="1">
       <c r="A879" s="9" t="s">
         <v>1755</v>
       </c>
@@ -16088,7 +16088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:3" ht="12.75">
+    <row r="880" spans="1:3" ht="15.75" customHeight="1">
       <c r="A880" s="11" t="s">
         <v>1757</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:3" ht="12.75">
+    <row r="881" spans="1:3" ht="15.75" customHeight="1">
       <c r="A881" s="11" t="s">
         <v>1759</v>
       </c>
@@ -16110,7 +16110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:3" ht="12.75">
+    <row r="882" spans="1:3" ht="15.75" customHeight="1">
       <c r="A882" s="11" t="s">
         <v>1761</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:3" ht="12.75">
+    <row r="883" spans="1:3" ht="15.75" customHeight="1">
       <c r="A883" s="11" t="s">
         <v>1763</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:3" ht="12.75">
+    <row r="884" spans="1:3" ht="15.75" customHeight="1">
       <c r="A884" s="1" t="s">
         <v>1765</v>
       </c>
@@ -16143,7 +16143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:3" ht="12.75">
+    <row r="885" spans="1:3" ht="15.75" customHeight="1">
       <c r="A885" s="1" t="s">
         <v>1767</v>
       </c>
@@ -16154,7 +16154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:3" ht="12.75">
+    <row r="886" spans="1:3" ht="15.75" customHeight="1">
       <c r="A886" s="11" t="s">
         <v>1769</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:3" ht="12.75">
+    <row r="887" spans="1:3" ht="15.75" customHeight="1">
       <c r="A887" s="11" t="s">
         <v>1771</v>
       </c>
@@ -16176,7 +16176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:3" ht="12.75">
+    <row r="888" spans="1:3" ht="15.75" customHeight="1">
       <c r="A888" s="1" t="s">
         <v>1773</v>
       </c>
@@ -16187,7 +16187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:3" ht="12.75">
+    <row r="889" spans="1:3" ht="15.75" customHeight="1">
       <c r="A889" s="1" t="s">
         <v>1775</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:3" ht="12.75">
+    <row r="890" spans="1:3" ht="15.75" customHeight="1">
       <c r="A890" s="1" t="s">
         <v>1777</v>
       </c>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:3" ht="12.75">
+    <row r="891" spans="1:3" ht="15.75" customHeight="1">
       <c r="A891" s="1" t="s">
         <v>1779</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:3" ht="12.75">
+    <row r="892" spans="1:3" ht="15.75" customHeight="1">
       <c r="A892" s="1" t="s">
         <v>1781</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:3" ht="12.75">
+    <row r="893" spans="1:3" ht="15.75" customHeight="1">
       <c r="A893" s="11" t="s">
         <v>1783</v>
       </c>
@@ -16242,7 +16242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:3" ht="12.75">
+    <row r="894" spans="1:3" ht="15.75" customHeight="1">
       <c r="A894" s="1" t="s">
         <v>1785</v>
       </c>
@@ -16253,7 +16253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:3" ht="12.75">
+    <row r="895" spans="1:3" ht="15.75" customHeight="1">
       <c r="A895" s="5" t="s">
         <v>1787</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:3" ht="12.75">
+    <row r="896" spans="1:3" ht="15.75" customHeight="1">
       <c r="A896" s="11" t="s">
         <v>1789</v>
       </c>
@@ -16275,7 +16275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:3" ht="12.75">
+    <row r="897" spans="1:3" ht="15.75" customHeight="1">
       <c r="A897" s="1" t="s">
         <v>1791</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:3" ht="12.75">
+    <row r="898" spans="1:3" ht="15.75" customHeight="1">
       <c r="A898" s="11" t="s">
         <v>1793</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:3" ht="12.75">
+    <row r="899" spans="1:3" ht="15.75" customHeight="1">
       <c r="A899" s="11" t="s">
         <v>1795</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:3" ht="12.75">
+    <row r="900" spans="1:3" ht="15.75" customHeight="1">
       <c r="A900" s="5" t="s">
         <v>1797</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:3" ht="12.75">
+    <row r="901" spans="1:3" ht="15.75" customHeight="1">
       <c r="A901" s="11" t="s">
         <v>1799</v>
       </c>
@@ -16330,7 +16330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:3" ht="12.75">
+    <row r="902" spans="1:3" ht="15.75" customHeight="1">
       <c r="A902" s="11" t="s">
         <v>1801</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:3" ht="12.75">
+    <row r="903" spans="1:3" ht="15.75" customHeight="1">
       <c r="A903" s="1" t="s">
         <v>1803</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:3" ht="12.75">
+    <row r="904" spans="1:3" ht="15.75" customHeight="1">
       <c r="A904" s="11" t="s">
         <v>1805</v>
       </c>
@@ -16363,7 +16363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:3" ht="12.75">
+    <row r="905" spans="1:3" ht="15.75" customHeight="1">
       <c r="A905" s="1" t="s">
         <v>1807</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:3" ht="12.75">
+    <row r="906" spans="1:3" ht="15.75" customHeight="1">
       <c r="A906" s="11" t="s">
         <v>1809</v>
       </c>
@@ -16385,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:3" ht="12.75">
+    <row r="907" spans="1:3" ht="15.75" customHeight="1">
       <c r="A907" s="11" t="s">
         <v>1811</v>
       </c>
@@ -16396,7 +16396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:3" ht="12.75">
+    <row r="908" spans="1:3" ht="15.75" customHeight="1">
       <c r="A908" s="1" t="s">
         <v>1813</v>
       </c>
@@ -16407,7 +16407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:3" ht="12.75">
+    <row r="909" spans="1:3" ht="15.75" customHeight="1">
       <c r="A909" s="1" t="s">
         <v>1815</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:3" ht="12.75">
+    <row r="910" spans="1:3" ht="15.75" customHeight="1">
       <c r="A910" s="11" t="s">
         <v>1817</v>
       </c>
@@ -16429,7 +16429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:3" ht="12.75">
+    <row r="911" spans="1:3" ht="15.75" customHeight="1">
       <c r="A911" s="1" t="s">
         <v>1819</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:3" ht="12.75">
+    <row r="912" spans="1:3" ht="15.75" customHeight="1">
       <c r="A912" s="1" t="s">
         <v>1821</v>
       </c>
@@ -16451,7 +16451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:3" ht="12.75">
+    <row r="913" spans="1:3" ht="15.75" customHeight="1">
       <c r="A913" s="11" t="s">
         <v>1823</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:3" ht="12.75">
+    <row r="914" spans="1:3" ht="15.75" customHeight="1">
       <c r="A914" s="11" t="s">
         <v>1825</v>
       </c>
@@ -16473,7 +16473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:3" ht="12.75">
+    <row r="915" spans="1:3" ht="15.75" customHeight="1">
       <c r="A915" s="11" t="s">
         <v>1827</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:3" ht="12.75">
+    <row r="916" spans="1:3" ht="15.75" customHeight="1">
       <c r="A916" s="11" t="s">
         <v>1829</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:3" ht="12.75">
+    <row r="917" spans="1:3" ht="15.75" customHeight="1">
       <c r="A917" s="1" t="s">
         <v>1831</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:3" ht="12.75">
+    <row r="918" spans="1:3" ht="15.75" customHeight="1">
       <c r="A918" s="1" t="s">
         <v>1833</v>
       </c>
@@ -16517,7 +16517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:3" ht="12.75">
+    <row r="919" spans="1:3" ht="15.75" customHeight="1">
       <c r="A919" s="11" t="s">
         <v>1835</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:3" ht="12.75">
+    <row r="920" spans="1:3" ht="15.75" customHeight="1">
       <c r="A920" s="1" t="s">
         <v>1837</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:3" ht="12.75">
+    <row r="921" spans="1:3" ht="15.75" customHeight="1">
       <c r="A921" s="1" t="s">
         <v>1839</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:3" ht="12.75">
+    <row r="922" spans="1:3" ht="15.75" customHeight="1">
       <c r="A922" s="11" t="s">
         <v>1809</v>
       </c>
@@ -16561,7 +16561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:3" ht="12.75">
+    <row r="923" spans="1:3" ht="15.75" customHeight="1">
       <c r="A923" s="11" t="s">
         <v>1842</v>
       </c>
@@ -16572,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:3" ht="12.75">
+    <row r="924" spans="1:3" ht="15.75" customHeight="1">
       <c r="A924" s="1" t="s">
         <v>1844</v>
       </c>
@@ -16583,7 +16583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:3" ht="12.75">
+    <row r="925" spans="1:3" ht="15.75" customHeight="1">
       <c r="A925" s="1" t="s">
         <v>1846</v>
       </c>
@@ -16594,7 +16594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:3" ht="12.75">
+    <row r="926" spans="1:3" ht="15.75" customHeight="1">
       <c r="A926" s="1" t="s">
         <v>1848</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:3" ht="12.75">
+    <row r="927" spans="1:3" ht="15.75" customHeight="1">
       <c r="A927" s="1" t="s">
         <v>1850</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:3" ht="12.75">
+    <row r="928" spans="1:3" ht="15.75" customHeight="1">
       <c r="A928" s="11" t="s">
         <v>1852</v>
       </c>
@@ -16627,7 +16627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:3" ht="12.75">
+    <row r="929" spans="1:3" ht="15.75" customHeight="1">
       <c r="A929" s="11" t="s">
         <v>1854</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:3" ht="12.75">
+    <row r="930" spans="1:3" ht="15.75" customHeight="1">
       <c r="A930" s="11" t="s">
         <v>1856</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:3" ht="12.75">
+    <row r="931" spans="1:3" ht="15.75" customHeight="1">
       <c r="A931" s="11" t="s">
         <v>1858</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:3" ht="12.75">
+    <row r="932" spans="1:3" ht="15.75" customHeight="1">
       <c r="A932" s="1" t="s">
         <v>1860</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:3" ht="12.75">
+    <row r="933" spans="1:3" ht="15.75" customHeight="1">
       <c r="A933" s="1" t="s">
         <v>1862</v>
       </c>
@@ -16682,7 +16682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:3" ht="12.75">
+    <row r="934" spans="1:3" ht="15.75" customHeight="1">
       <c r="A934" s="1" t="s">
         <v>1864</v>
       </c>
@@ -16693,7 +16693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:3" ht="12.75">
+    <row r="935" spans="1:3" ht="15.75" customHeight="1">
       <c r="A935" s="1" t="s">
         <v>1866</v>
       </c>
@@ -16704,7 +16704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:3" ht="12.75">
+    <row r="936" spans="1:3" ht="15.75" customHeight="1">
       <c r="A936" s="11" t="s">
         <v>1868</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:3" ht="12.75">
+    <row r="937" spans="1:3" ht="15.75" customHeight="1">
       <c r="A937" s="1" t="s">
         <v>1870</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:3" ht="12.75">
+    <row r="938" spans="1:3" ht="15.75" customHeight="1">
       <c r="A938" s="1" t="s">
         <v>1872</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:3" ht="12.75">
+    <row r="939" spans="1:3" ht="15.75" customHeight="1">
       <c r="A939" s="1" t="s">
         <v>1874</v>
       </c>
@@ -16748,7 +16748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:3" ht="12.75">
+    <row r="940" spans="1:3" ht="15.75" customHeight="1">
       <c r="A940" s="19" t="s">
         <v>1876</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:3" ht="12.75">
+    <row r="941" spans="1:3" ht="15.75" customHeight="1">
       <c r="A941" s="11" t="s">
         <v>1878</v>
       </c>
@@ -16770,7 +16770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:3" ht="12.75">
+    <row r="942" spans="1:3" ht="15.75" customHeight="1">
       <c r="A942" s="11" t="s">
         <v>1880</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:3" ht="12.75">
+    <row r="943" spans="1:3" ht="15.75" customHeight="1">
       <c r="A943" s="11" t="s">
         <v>1882</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:3" ht="12.75">
+    <row r="944" spans="1:3" ht="15.75" customHeight="1">
       <c r="A944" s="11" t="s">
         <v>1884</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:3" ht="12.75">
+    <row r="945" spans="1:3" ht="15.75" customHeight="1">
       <c r="A945" s="11" t="s">
         <v>1886</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:3" ht="12.75">
+    <row r="946" spans="1:3" ht="15.75" customHeight="1">
       <c r="A946" s="11" t="s">
         <v>1888</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:3" ht="12.75">
+    <row r="947" spans="1:3" ht="15.75" customHeight="1">
       <c r="A947" s="1" t="s">
         <v>1890</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:3" ht="12.75">
+    <row r="948" spans="1:3" ht="15.75" customHeight="1">
       <c r="A948" s="1" t="s">
         <v>1892</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:3" ht="12.75">
+    <row r="949" spans="1:3" ht="15.75" customHeight="1">
       <c r="A949" s="11" t="s">
         <v>1894</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:3" ht="12.75">
+    <row r="950" spans="1:3" ht="15.75" customHeight="1">
       <c r="A950" s="11" t="s">
         <v>1896</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:3" ht="12.75">
+    <row r="951" spans="1:3" ht="15.75" customHeight="1">
       <c r="A951" s="11" t="s">
         <v>1898</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:3" ht="12.75">
+    <row r="952" spans="1:3" ht="15.75" customHeight="1">
       <c r="A952" s="11" t="s">
         <v>1900</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:3" ht="12.75">
+    <row r="953" spans="1:3" ht="15.75" customHeight="1">
       <c r="A953" s="11" t="s">
         <v>1902</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:3" ht="12.75">
+    <row r="954" spans="1:3" ht="15.75" customHeight="1">
       <c r="A954" s="1" t="s">
         <v>1904</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:3" ht="12.75">
+    <row r="955" spans="1:3" ht="15.75" customHeight="1">
       <c r="A955" s="11" t="s">
         <v>1906</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:3" ht="12.75">
+    <row r="956" spans="1:3" ht="15.75" customHeight="1">
       <c r="A956" s="1" t="s">
         <v>1908</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:3" ht="12.75">
+    <row r="957" spans="1:3" ht="15.75" customHeight="1">
       <c r="A957" s="11" t="s">
         <v>1910</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:3" ht="12.75">
+    <row r="958" spans="1:3" ht="15.75" customHeight="1">
       <c r="A958" s="1" t="s">
         <v>1912</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:3" ht="12.75">
+    <row r="959" spans="1:3" ht="15.75" customHeight="1">
       <c r="A959" s="11" t="s">
         <v>1914</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:3" ht="12.75">
+    <row r="960" spans="1:3" ht="15.75" customHeight="1">
       <c r="A960" s="5" t="s">
         <v>1902</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:3" ht="12.75">
+    <row r="961" spans="1:3" ht="15.75" customHeight="1">
       <c r="A961" s="1" t="s">
         <v>1917</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:3" ht="12.75">
+    <row r="962" spans="1:3" ht="15.75" customHeight="1">
       <c r="A962" s="1" t="s">
         <v>1919</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:3" ht="12.75">
+    <row r="963" spans="1:3" ht="15.75" customHeight="1">
       <c r="A963" s="1" t="s">
         <v>1921</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:3" ht="12.75">
+    <row r="964" spans="1:3" ht="15.75" customHeight="1">
       <c r="A964" s="11" t="s">
         <v>1923</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:3" ht="12.75">
+    <row r="965" spans="1:3" ht="15.75" customHeight="1">
       <c r="A965" s="11" t="s">
         <v>1925</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:3" ht="12.75">
+    <row r="966" spans="1:3" ht="15.75" customHeight="1">
       <c r="A966" s="11" t="s">
         <v>1927</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:3" ht="12.75">
+    <row r="967" spans="1:3" ht="15.75" customHeight="1">
       <c r="A967" s="11" t="s">
         <v>1929</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:3" ht="12.75">
+    <row r="968" spans="1:3" ht="15.75" customHeight="1">
       <c r="A968" s="11" t="s">
         <v>1931</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:3" ht="12.75">
+    <row r="969" spans="1:3" ht="15.75" customHeight="1">
       <c r="A969" s="1" t="s">
         <v>1933</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:3" ht="12.75">
+    <row r="970" spans="1:3" ht="15.75" customHeight="1">
       <c r="A970" s="1" t="s">
         <v>1935</v>
       </c>
